--- a/pivot/slashdot.xlsx
+++ b/pivot/slashdot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eske\Documents\git\SCCResults\pivot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B8628-2F4C-46C1-ADFE-47E445CD6621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C0BE04-929A-4354-8AEF-A64F669AB409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="6" xr2:uid="{A36B990A-FFBA-4D1A-A22A-0A8E1C117C69}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="Rand" sheetId="5" r:id="rId4"/>
     <sheet name="Walk" sheetId="6" r:id="rId5"/>
     <sheet name="Walk2" sheetId="7" r:id="rId6"/>
-    <sheet name="Test" sheetId="1" r:id="rId7"/>
+    <sheet name="Median" sheetId="1" r:id="rId7"/>
+    <sheet name="Average" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>Ideal</t>
   </si>
@@ -166,7 +167,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$I$1</c:f>
+              <c:f>Median!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -189,7 +190,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Test!$I$2:$I$101</c:f>
+              <c:f>Median!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -508,7 +509,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$J$1</c:f>
+              <c:f>Median!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -531,7 +532,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Test!$J$2:$J$101</c:f>
+              <c:f>Median!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -850,7 +851,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$K$1</c:f>
+              <c:f>Median!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +874,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Test!$K$2:$K$101</c:f>
+              <c:f>Median!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1192,7 +1193,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$L$1</c:f>
+              <c:f>Median!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1215,7 +1216,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Test!$L$2:$L$101</c:f>
+              <c:f>Median!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1534,7 +1535,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$M$1</c:f>
+              <c:f>Median!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1557,7 +1558,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Test!$M$2:$M$101</c:f>
+              <c:f>Median!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1876,7 +1877,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$N$1</c:f>
+              <c:f>Median!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1899,7 +1900,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Test!$N$2:$N$101</c:f>
+              <c:f>Median!$N$2:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2218,7 +2219,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$O$1</c:f>
+              <c:f>Median!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2243,7 +2244,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Test!$O$2:$O$101</c:f>
+              <c:f>Median!$O$2:$O$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2752,6 +2753,2649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>71307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71381</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71387</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71390</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71393</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71405</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71408</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71411</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71414</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71417</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71420</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71423</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71429</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71433</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71437</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71439</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71441</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71443</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71445</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71447</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71449</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71453</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71455</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71457</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71461</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71463</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71467</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71469</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71471</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71473</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71475</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71477</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71479</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71481</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71483</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71485</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71487</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71489</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71491</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71493</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71495</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71497</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71499</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71501</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71503</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71505</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71507</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71509</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71511</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71513</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71515</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71517</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71519</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71521</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71523</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71525</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71527</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71529</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71531</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71533</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71535</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71537</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71539</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71541</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>71543</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>71545</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71547</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71549</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71551</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71553</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71555</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F18-4981-81FB-91016C61A348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxDeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>71317.279999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71318.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71320.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71325.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71326.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71327.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71332.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71334.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71335.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71339.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71340.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71341.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71342.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71343.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71344.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71345.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71347.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71350.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71351.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71354.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71355.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71356.66</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71357.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71359.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71362.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71367.759999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71369.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71373.66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71378.66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71381.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71382.740000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71385.72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71387.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71388.819999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71390.739999999991</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71392.719999999987</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71393.719999999987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71394.719999999987</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71396.699999999983</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71398.639999999985</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71399.839999999982</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71401.059999999983</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71402.89999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71404.079999999973</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71406.119999999966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71408.819999999963</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71410.15999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71413.059999999954</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71415.099999999948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71417.579999999944</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71420.599999999948</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71422.159999999945</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71425.099999999948</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71427.819999999949</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71431.299999999945</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71434.239999999947</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71437.139999999941</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71440.019999999946</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71441.459999999948</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71444.259999999951</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71447.119999999952</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71449.959999999948</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71451.419999999955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71453.599999999948</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71456.619999999952</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71460.359999999957</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71463.179999999964</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71466.099999999962</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71468.939999999959</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71471.739999999962</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71474.679999999964</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71475.799999999959</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71476.799999999959</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71477.799999999959</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71478.799999999959</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71479.799999999959</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71481.739999999962</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71482.959999999963</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71484.839999999967</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71486.699999999968</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71487.939999999973</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71489.839999999967</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71491.799999999974</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71493.019999999975</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71494.999999999971</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71496.939999999973</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71498.919999999969</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71500.879999999976</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71502.819999999978</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71504.799999999974</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71506.799999999974</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71508.719999999972</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>71509.919999999969</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>71511.859999999971</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71513.859999999971</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71515.799999999974</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71516.89999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71517.979999999981</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71519.719999999987</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71520.859999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F18-4981-81FB-91016C61A348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxCol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$K$2:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>71314.240000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71320.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71325.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71329.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71335.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71336.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71337.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71341.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71346.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71350.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71353.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71354.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71357.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71358.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71361.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71362.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71365.440000000017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71368.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71371.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71374.560000000027</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71377.540000000023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71380.640000000029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71384.36000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71387.36000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71390.22000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71393.040000000037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71394.640000000043</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71397.580000000045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71400.660000000047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71403.720000000045</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71405.560000000041</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71408.540000000037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71412.240000000034</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71415.22000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71418.260000000024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71421.22000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71424.280000000028</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71425.900000000023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71428.820000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71431.540000000023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71435.24000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71438.24000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71441.860000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71444.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71446.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71448.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71449.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71451.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71452.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71454.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71455.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71457.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71458.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71460.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71461.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71463.400000000023</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71464.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71466.380000000019</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71467.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71468.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71470.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71472.420000000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71473.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71475.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71476.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71478.320000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71479.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71481.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71482.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71483.700000000026</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71485.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71487.440000000017</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71488.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71490.380000000019</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71491.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71493.400000000023</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71494.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71496.260000000024</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71497.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71499.420000000027</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71500.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71501.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71503.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71505.380000000019</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71506.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71508.260000000024</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71509.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71510.580000000016</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71512.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71513.520000000019</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71515.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71516.700000000026</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>71518.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>71519.560000000027</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71521.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71522.720000000016</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71524.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71526.340000000026</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71527.460000000021</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71529.460000000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F18-4981-81FB-91016C61A348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxPre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>71321.179999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71322.179999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71323.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71329.259999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71330.259999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71331.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71336.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71338.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71339.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71343.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71344.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71345.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71346.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71347.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71348.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71349.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71351.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71354.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71355.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71358.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71359.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71360.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71361.37999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71362.499999999985</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71366.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71372.01999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71373.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71377.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71382.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71385.159999999989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71386.359999999986</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71389.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71391.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71392.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71394.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71396.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71397.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71398.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71400.299999999988</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71402.299999999988</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71403.51999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71404.599999999991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71406.51999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71407.579999999987</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71409.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71412.079999999987</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71413.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71416.299999999988</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71418.419999999984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71420.639999999985</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71423.639999999985</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71424.939999999988</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71427.87999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71430.51999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71434.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71437.37999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71440.34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71443.34</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71444.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71447.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71450.34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71453.37999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71454.459999999992</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71456.499999999985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71459.499999999985</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71463.37999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71466.37999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71469.37999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71472.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71475.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71478.28</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71479.360000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71480.36</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71481.36</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71482.36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71483.360000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71485.34</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71486.58</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71488.34</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71490.179999999993</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71491.359999999986</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71493.239999999991</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71495.239999999991</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71496.439999999988</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71498.419999999984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71500.419999999984</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71502.419999999984</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71504.359999999986</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71506.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71508.28</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71510.2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71512.179999999993</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>71513.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>71515.360000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71517.36</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71519.360000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71520.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71521.42</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71523.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71524.51999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F18-4981-81FB-91016C61A348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>68456.179999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68457.179999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71310.719999999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71311.719999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71312.75999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71313.779999999984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71314.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71315.819999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71316.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71317.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71318.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71319.959999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71320.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71322.039999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71323.259999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71324.259999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71325.279999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71326.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71327.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71328.28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71329.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71330.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71331.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71332.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71333.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71334.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71335.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71336.36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71337.38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71338.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71339.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71340.38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71341.42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71342.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71343.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71344.48000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71345.48000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71346.500000000015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71347.520000000019</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71348.520000000019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71349.520000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71350.520000000019</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71351.520000000019</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71352.540000000023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71353.540000000023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71354.560000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71355.60000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71356.60000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71357.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71358.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71359.820000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71361.160000000018</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71362.340000000011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71363.38</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71364.38</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71365.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71366.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71367.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71368.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71369.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71370.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71371.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71372.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71373.48000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71374.540000000008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71375.540000000008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71376.540000000008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71377.540000000008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71378.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71379.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71380.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71381.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71382.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71383.62000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71384.62000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71385.640000000014</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71386.640000000014</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71387.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71388.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71389.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71390.700000000012</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71391.740000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71392.740000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71393.760000000009</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71394.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71395.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71396.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71397.919999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71398.94</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71400</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71401.02</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71402.040000000008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>71403.040000000008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>71404.060000000012</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71405.140000000014</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71406.140000000014</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71407.340000000011</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71408.38</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71409.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71410.400000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2F18-4981-81FB-91016C61A348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$N$2:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>65606.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65607.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71313.039999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71314.039999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71315.099999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71316.159999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71317.219999999987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71318.219999999987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71319.25999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71320.299999999974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71321.319999999978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71322.339999999982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71323.339999999982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71324.359999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71325.579999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71326.579999999987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71327.599999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71328.599999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71329.639999999985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71330.639999999985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71331.639999999985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71332.659999999989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71333.659999999989</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71334.679999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71335.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71336.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71337.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71338.720000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71339.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71340.740000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71341.78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71342.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71343.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71344.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71345.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71346.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71347.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71348.86</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71349.86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71350.880000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71351.900000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71352.900000000009</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71353.900000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71354.900000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71355.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71356.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71357.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71358.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71359.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71360.940000000017</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71362.160000000018</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71363.440000000017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71364.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71365.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71366.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71367.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71368.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71369.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71370.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71371.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71372.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71373.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71374.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71375.580000000016</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71376.60000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71377.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71378.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71379.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71380.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71381.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71382.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71383.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71384.680000000022</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71385.720000000016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71386.720000000016</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71387.74000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71388.74000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71389.74000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71390.780000000013</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71391.800000000017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71392.820000000022</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71393.840000000026</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71394.840000000026</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71395.880000000019</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71396.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71397.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71398.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71399.920000000013</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71400.960000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71401.960000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71402.960000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71403.960000000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>71404.960000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>71406</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71407</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71408.02</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71409.240000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71410.260000000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71411.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71412.320000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2F18-4981-81FB-91016C61A348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walk2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$O$2:$O$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>71308.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71309.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71310.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71311.840000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71312.860000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71313.880000000019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71314.900000000023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71315.940000000017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71316.940000000017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71317.960000000021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71318.980000000025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71319.980000000025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71321.060000000027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71322.10000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71323.320000000022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71324.320000000022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71325.380000000019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71326.420000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71327.440000000017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71328.48000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71329.48000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71330.48000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71331.520000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71332.540000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71333.540000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71334.540000000008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71335.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71336.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71337.560000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71338.580000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71339.580000000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71340.60000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71341.60000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71342.60000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71343.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71344.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71345.620000000024</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71346.640000000029</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71347.640000000029</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71348.660000000033</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71349.700000000026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71350.74000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71351.760000000024</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71352.760000000024</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71353.760000000024</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71354.760000000024</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71355.760000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71356.760000000024</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71357.760000000024</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71358.780000000028</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71360.120000000024</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71361.36000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71362.400000000023</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71363.420000000027</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71364.420000000027</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71365.420000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71366.420000000027</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>71367.440000000031</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71368.460000000036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71369.500000000029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71370.500000000029</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71371.520000000033</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71372.520000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71373.540000000037</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71374.540000000037</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71375.540000000037</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71376.540000000037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71377.560000000041</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71378.580000000045</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71379.580000000045</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71380.620000000039</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71381.620000000039</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71382.640000000043</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71383.640000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71384.660000000047</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71385.660000000047</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71386.680000000051</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>71387.700000000055</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71388.700000000055</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71389.720000000059</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71390.720000000059</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71391.760000000053</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71392.760000000053</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71393.820000000051</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71394.840000000055</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71395.880000000048</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71396.920000000042</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71397.920000000042</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71398.960000000036</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71399.98000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71401.000000000044</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>71402.000000000044</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>71403.020000000048</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>71404.040000000052</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71405.080000000045</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>71406.100000000049</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71407.320000000051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71408.340000000055</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71409.360000000059</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71410.360000000059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2F18-4981-81FB-91016C61A348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2128102512"/>
+        <c:axId val="124581536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2128102512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124581536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124581536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="71700"/>
+          <c:min val="65500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128102512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2792,7 +5436,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3349,6 +6549,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3E0C11-2F8E-45EF-AA9D-A069EBA0C67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -94957,7 +98200,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -100713,4 +103956,5764 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6DF08F-A94B-4B5B-9D9C-B998CCFAFF62}">
+  <dimension ref="A1:O101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>71307</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(MaxDeg!A1:AX1)</f>
+        <v>71317.279999999999</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(MaxCol!A1:AX1)</f>
+        <v>71314.240000000005</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(MaxPre!A1:AX1)</f>
+        <v>71321.179999999993</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(Rand!A1:AX1)</f>
+        <v>68456.179999999993</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(Walk!A1:AX1)</f>
+        <v>65606.28</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(Walk2!A1:AX1)</f>
+        <v>71308.820000000007</v>
+      </c>
+      <c r="I2">
+        <f>SUM(A$2:A2)</f>
+        <v>71307</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B$2:B2)</f>
+        <v>71317.279999999999</v>
+      </c>
+      <c r="K2">
+        <f>SUM(C$2:C2)</f>
+        <v>71314.240000000005</v>
+      </c>
+      <c r="L2">
+        <f>SUM(D$2:D2)</f>
+        <v>71321.179999999993</v>
+      </c>
+      <c r="M2">
+        <f>SUM(E$2:E2)</f>
+        <v>68456.179999999993</v>
+      </c>
+      <c r="N2">
+        <f>SUM(F$2:F2)</f>
+        <v>65606.28</v>
+      </c>
+      <c r="O2">
+        <f>SUM(G$2:G2)</f>
+        <v>71308.820000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(MaxDeg!A2:AX2)</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(MaxCol!A2:AX2)</f>
+        <v>6.16</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(MaxPre!A2:AX2)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(Rand!A2:AX2)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(Walk!A2:AX2)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(Walk2!A2:AX2)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>SUM(A$2:A3)</f>
+        <v>71313</v>
+      </c>
+      <c r="J3">
+        <f>SUM(B$2:B3)</f>
+        <v>71318.28</v>
+      </c>
+      <c r="K3">
+        <f>SUM(C$2:C3)</f>
+        <v>71320.400000000009</v>
+      </c>
+      <c r="L3">
+        <f>SUM(D$2:D3)</f>
+        <v>71322.179999999993</v>
+      </c>
+      <c r="M3">
+        <f>SUM(E$2:E3)</f>
+        <v>68457.179999999993</v>
+      </c>
+      <c r="N3">
+        <f>SUM(F$2:F3)</f>
+        <v>65607.28</v>
+      </c>
+      <c r="O3">
+        <f>SUM(G$2:G3)</f>
+        <v>71309.820000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(MaxDeg!A3:AX3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(MaxCol!A3:AX3)</f>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(MaxPre!A3:AX3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(Rand!A3:AX3)</f>
+        <v>2853.54</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(Walk!A3:AX3)</f>
+        <v>5705.76</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(Walk2!A3:AX3)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>SUM(A$2:A4)</f>
+        <v>71319</v>
+      </c>
+      <c r="J4">
+        <f>SUM(B$2:B4)</f>
+        <v>71320.08</v>
+      </c>
+      <c r="K4">
+        <f>SUM(C$2:C4)</f>
+        <v>71325.420000000013</v>
+      </c>
+      <c r="L4">
+        <f>SUM(D$2:D4)</f>
+        <v>71323.48</v>
+      </c>
+      <c r="M4">
+        <f>SUM(E$2:E4)</f>
+        <v>71310.719999999987</v>
+      </c>
+      <c r="N4">
+        <f>SUM(F$2:F4)</f>
+        <v>71313.039999999994</v>
+      </c>
+      <c r="O4">
+        <f>SUM(G$2:G4)</f>
+        <v>71310.820000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(MaxDeg!A4:AX4)</f>
+        <v>5.44</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(MaxCol!A4:AX4)</f>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(MaxPre!A4:AX4)</f>
+        <v>5.78</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(Rand!A4:AX4)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(Walk!A4:AX4)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(Walk2!A4:AX4)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I5">
+        <f>SUM(A$2:A5)</f>
+        <v>71324</v>
+      </c>
+      <c r="J5">
+        <f>SUM(B$2:B5)</f>
+        <v>71325.52</v>
+      </c>
+      <c r="K5">
+        <f>SUM(C$2:C5)</f>
+        <v>71329.420000000013</v>
+      </c>
+      <c r="L5">
+        <f>SUM(D$2:D5)</f>
+        <v>71329.259999999995</v>
+      </c>
+      <c r="M5">
+        <f>SUM(E$2:E5)</f>
+        <v>71311.719999999987</v>
+      </c>
+      <c r="N5">
+        <f>SUM(F$2:F5)</f>
+        <v>71314.039999999994</v>
+      </c>
+      <c r="O5">
+        <f>SUM(G$2:G5)</f>
+        <v>71311.840000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(MaxDeg!A5:AX5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(MaxCol!A5:AX5)</f>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(MaxPre!A5:AX5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(Rand!A5:AX5)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(Walk!A5:AX5)</f>
+        <v>1.06</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(Walk2!A5:AX5)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I6">
+        <f>SUM(A$2:A6)</f>
+        <v>71329</v>
+      </c>
+      <c r="J6">
+        <f>SUM(B$2:B6)</f>
+        <v>71326.52</v>
+      </c>
+      <c r="K6">
+        <f>SUM(C$2:C6)</f>
+        <v>71335.420000000013</v>
+      </c>
+      <c r="L6">
+        <f>SUM(D$2:D6)</f>
+        <v>71330.259999999995</v>
+      </c>
+      <c r="M6">
+        <f>SUM(E$2:E6)</f>
+        <v>71312.75999999998</v>
+      </c>
+      <c r="N6">
+        <f>SUM(F$2:F6)</f>
+        <v>71315.099999999991</v>
+      </c>
+      <c r="O6">
+        <f>SUM(G$2:G6)</f>
+        <v>71312.860000000015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(MaxDeg!A6:AX6)</f>
+        <v>1.08</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(MaxCol!A6:AX6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(MaxPre!A6:AX6)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(Rand!A6:AX6)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(Walk!A6:AX6)</f>
+        <v>1.06</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(Walk2!A6:AX6)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I7">
+        <f>SUM(A$2:A7)</f>
+        <v>71333</v>
+      </c>
+      <c r="J7">
+        <f>SUM(B$2:B7)</f>
+        <v>71327.600000000006</v>
+      </c>
+      <c r="K7">
+        <f>SUM(C$2:C7)</f>
+        <v>71336.420000000013</v>
+      </c>
+      <c r="L7">
+        <f>SUM(D$2:D7)</f>
+        <v>71331.34</v>
+      </c>
+      <c r="M7">
+        <f>SUM(E$2:E7)</f>
+        <v>71313.779999999984</v>
+      </c>
+      <c r="N7">
+        <f>SUM(F$2:F7)</f>
+        <v>71316.159999999989</v>
+      </c>
+      <c r="O7">
+        <f>SUM(G$2:G7)</f>
+        <v>71313.880000000019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(MaxDeg!A7:AX7)</f>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(MaxCol!A7:AX7)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(MaxPre!A7:AX7)</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(Rand!A7:AX7)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(Walk!A7:AX7)</f>
+        <v>1.06</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(Walk2!A7:AX7)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I8">
+        <f>SUM(A$2:A8)</f>
+        <v>71337</v>
+      </c>
+      <c r="J8">
+        <f>SUM(B$2:B8)</f>
+        <v>71332.66</v>
+      </c>
+      <c r="K8">
+        <f>SUM(C$2:C8)</f>
+        <v>71337.420000000013</v>
+      </c>
+      <c r="L8">
+        <f>SUM(D$2:D8)</f>
+        <v>71336.319999999992</v>
+      </c>
+      <c r="M8">
+        <f>SUM(E$2:E8)</f>
+        <v>71314.799999999988</v>
+      </c>
+      <c r="N8">
+        <f>SUM(F$2:F8)</f>
+        <v>71317.219999999987</v>
+      </c>
+      <c r="O8">
+        <f>SUM(G$2:G8)</f>
+        <v>71314.900000000023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(MaxDeg!A8:AX8)</f>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(MaxCol!A8:AX8)</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(MaxPre!A8:AX8)</f>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(Rand!A8:AX8)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(Walk!A8:AX8)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(Walk2!A8:AX8)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I9">
+        <f>SUM(A$2:A9)</f>
+        <v>71341</v>
+      </c>
+      <c r="J9">
+        <f>SUM(B$2:B9)</f>
+        <v>71334.66</v>
+      </c>
+      <c r="K9">
+        <f>SUM(C$2:C9)</f>
+        <v>71341.420000000013</v>
+      </c>
+      <c r="L9">
+        <f>SUM(D$2:D9)</f>
+        <v>71338.319999999992</v>
+      </c>
+      <c r="M9">
+        <f>SUM(E$2:E9)</f>
+        <v>71315.819999999992</v>
+      </c>
+      <c r="N9">
+        <f>SUM(F$2:F9)</f>
+        <v>71318.219999999987</v>
+      </c>
+      <c r="O9">
+        <f>SUM(G$2:G9)</f>
+        <v>71315.940000000017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(MaxDeg!A9:AX9)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(MaxCol!A9:AX9)</f>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(MaxPre!A9:AX9)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(Rand!A9:AX9)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(Walk!A9:AX9)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(Walk2!A9:AX9)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>SUM(A$2:A10)</f>
+        <v>71345</v>
+      </c>
+      <c r="J10">
+        <f>SUM(B$2:B10)</f>
+        <v>71335.66</v>
+      </c>
+      <c r="K10">
+        <f>SUM(C$2:C10)</f>
+        <v>71346.420000000013</v>
+      </c>
+      <c r="L10">
+        <f>SUM(D$2:D10)</f>
+        <v>71339.319999999992</v>
+      </c>
+      <c r="M10">
+        <f>SUM(E$2:E10)</f>
+        <v>71316.84</v>
+      </c>
+      <c r="N10">
+        <f>SUM(F$2:F10)</f>
+        <v>71319.25999999998</v>
+      </c>
+      <c r="O10">
+        <f>SUM(G$2:G10)</f>
+        <v>71316.940000000017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(MaxDeg!A10:AX10)</f>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(MaxCol!A10:AX10)</f>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(MaxPre!A10:AX10)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(Rand!A10:AX10)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(Walk!A10:AX10)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(Walk2!A10:AX10)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I11">
+        <f>SUM(A$2:A11)</f>
+        <v>71349</v>
+      </c>
+      <c r="J11">
+        <f>SUM(B$2:B11)</f>
+        <v>71339.66</v>
+      </c>
+      <c r="K11">
+        <f>SUM(C$2:C11)</f>
+        <v>71350.420000000013</v>
+      </c>
+      <c r="L11">
+        <f>SUM(D$2:D11)</f>
+        <v>71343.319999999992</v>
+      </c>
+      <c r="M11">
+        <f>SUM(E$2:E11)</f>
+        <v>71317.899999999994</v>
+      </c>
+      <c r="N11">
+        <f>SUM(F$2:F11)</f>
+        <v>71320.299999999974</v>
+      </c>
+      <c r="O11">
+        <f>SUM(G$2:G11)</f>
+        <v>71317.960000000021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(MaxDeg!A11:AX11)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(MaxCol!A11:AX11)</f>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(MaxPre!A11:AX11)</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(Rand!A11:AX11)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(Walk!A11:AX11)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(Walk2!A11:AX11)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I12">
+        <f>SUM(A$2:A12)</f>
+        <v>71353</v>
+      </c>
+      <c r="J12">
+        <f>SUM(B$2:B12)</f>
+        <v>71340.66</v>
+      </c>
+      <c r="K12">
+        <f>SUM(C$2:C12)</f>
+        <v>71353.420000000013</v>
+      </c>
+      <c r="L12">
+        <f>SUM(D$2:D12)</f>
+        <v>71344.319999999992</v>
+      </c>
+      <c r="M12">
+        <f>SUM(E$2:E12)</f>
+        <v>71318.92</v>
+      </c>
+      <c r="N12">
+        <f>SUM(F$2:F12)</f>
+        <v>71321.319999999978</v>
+      </c>
+      <c r="O12">
+        <f>SUM(G$2:G12)</f>
+        <v>71318.980000000025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(MaxDeg!A12:AX12)</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(MaxCol!A12:AX12)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(MaxPre!A12:AX12)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(Rand!A12:AX12)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(Walk!A12:AX12)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(Walk2!A12:AX12)</f>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>SUM(A$2:A13)</f>
+        <v>71357</v>
+      </c>
+      <c r="J13">
+        <f>SUM(B$2:B13)</f>
+        <v>71341.66</v>
+      </c>
+      <c r="K13">
+        <f>SUM(C$2:C13)</f>
+        <v>71354.420000000013</v>
+      </c>
+      <c r="L13">
+        <f>SUM(D$2:D13)</f>
+        <v>71345.319999999992</v>
+      </c>
+      <c r="M13">
+        <f>SUM(E$2:E13)</f>
+        <v>71319.959999999992</v>
+      </c>
+      <c r="N13">
+        <f>SUM(F$2:F13)</f>
+        <v>71322.339999999982</v>
+      </c>
+      <c r="O13">
+        <f>SUM(G$2:G13)</f>
+        <v>71319.980000000025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(MaxDeg!A13:AX13)</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(MaxCol!A13:AX13)</f>
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(MaxPre!A13:AX13)</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(Rand!A13:AX13)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(Walk!A13:AX13)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(Walk2!A13:AX13)</f>
+        <v>1.08</v>
+      </c>
+      <c r="I14">
+        <f>SUM(A$2:A14)</f>
+        <v>71360</v>
+      </c>
+      <c r="J14">
+        <f>SUM(B$2:B14)</f>
+        <v>71342.66</v>
+      </c>
+      <c r="K14">
+        <f>SUM(C$2:C14)</f>
+        <v>71357.420000000013</v>
+      </c>
+      <c r="L14">
+        <f>SUM(D$2:D14)</f>
+        <v>71346.319999999992</v>
+      </c>
+      <c r="M14">
+        <f>SUM(E$2:E14)</f>
+        <v>71320.98</v>
+      </c>
+      <c r="N14">
+        <f>SUM(F$2:F14)</f>
+        <v>71323.339999999982</v>
+      </c>
+      <c r="O14">
+        <f>SUM(G$2:G14)</f>
+        <v>71321.060000000027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(MaxDeg!A14:AX14)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(MaxCol!A14:AX14)</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(MaxPre!A14:AX14)</f>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(Rand!A14:AX14)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(Walk!A14:AX14)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(Walk2!A14:AX14)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I15">
+        <f>SUM(A$2:A15)</f>
+        <v>71363</v>
+      </c>
+      <c r="J15">
+        <f>SUM(B$2:B15)</f>
+        <v>71343.66</v>
+      </c>
+      <c r="K15">
+        <f>SUM(C$2:C15)</f>
+        <v>71358.420000000013</v>
+      </c>
+      <c r="L15">
+        <f>SUM(D$2:D15)</f>
+        <v>71347.319999999992</v>
+      </c>
+      <c r="M15">
+        <f>SUM(E$2:E15)</f>
+        <v>71322.039999999994</v>
+      </c>
+      <c r="N15">
+        <f>SUM(F$2:F15)</f>
+        <v>71324.359999999986</v>
+      </c>
+      <c r="O15">
+        <f>SUM(G$2:G15)</f>
+        <v>71322.10000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(MaxDeg!A15:AX15)</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(MaxCol!A15:AX15)</f>
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(MaxPre!A15:AX15)</f>
+        <v>1.02</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(Rand!A15:AX15)</f>
+        <v>1.22</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(Walk!A15:AX15)</f>
+        <v>1.22</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(Walk2!A15:AX15)</f>
+        <v>1.22</v>
+      </c>
+      <c r="I16">
+        <f>SUM(A$2:A16)</f>
+        <v>71366</v>
+      </c>
+      <c r="J16">
+        <f>SUM(B$2:B16)</f>
+        <v>71344.66</v>
+      </c>
+      <c r="K16">
+        <f>SUM(C$2:C16)</f>
+        <v>71361.420000000013</v>
+      </c>
+      <c r="L16">
+        <f>SUM(D$2:D16)</f>
+        <v>71348.34</v>
+      </c>
+      <c r="M16">
+        <f>SUM(E$2:E16)</f>
+        <v>71323.259999999995</v>
+      </c>
+      <c r="N16">
+        <f>SUM(F$2:F16)</f>
+        <v>71325.579999999987</v>
+      </c>
+      <c r="O16">
+        <f>SUM(G$2:G16)</f>
+        <v>71323.320000000022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(MaxDeg!A16:AX16)</f>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(MaxCol!A16:AX16)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(MaxPre!A16:AX16)</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(Rand!A16:AX16)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(Walk!A16:AX16)</f>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(Walk2!A16:AX16)</f>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f>SUM(A$2:A17)</f>
+        <v>71369</v>
+      </c>
+      <c r="J17">
+        <f>SUM(B$2:B17)</f>
+        <v>71345.66</v>
+      </c>
+      <c r="K17">
+        <f>SUM(C$2:C17)</f>
+        <v>71362.420000000013</v>
+      </c>
+      <c r="L17">
+        <f>SUM(D$2:D17)</f>
+        <v>71349.34</v>
+      </c>
+      <c r="M17">
+        <f>SUM(E$2:E17)</f>
+        <v>71324.259999999995</v>
+      </c>
+      <c r="N17">
+        <f>SUM(F$2:F17)</f>
+        <v>71326.579999999987</v>
+      </c>
+      <c r="O17">
+        <f>SUM(G$2:G17)</f>
+        <v>71324.320000000022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(MaxDeg!A17:AX17)</f>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(MaxCol!A17:AX17)</f>
+        <v>3.02</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(MaxPre!A17:AX17)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(Rand!A17:AX17)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGE(Walk!A17:AX17)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(Walk2!A17:AX17)</f>
+        <v>1.06</v>
+      </c>
+      <c r="I18">
+        <f>SUM(A$2:A18)</f>
+        <v>71372</v>
+      </c>
+      <c r="J18">
+        <f>SUM(B$2:B18)</f>
+        <v>71347.66</v>
+      </c>
+      <c r="K18">
+        <f>SUM(C$2:C18)</f>
+        <v>71365.440000000017</v>
+      </c>
+      <c r="L18">
+        <f>SUM(D$2:D18)</f>
+        <v>71351.319999999992</v>
+      </c>
+      <c r="M18">
+        <f>SUM(E$2:E18)</f>
+        <v>71325.279999999999</v>
+      </c>
+      <c r="N18">
+        <f>SUM(F$2:F18)</f>
+        <v>71327.599999999991</v>
+      </c>
+      <c r="O18">
+        <f>SUM(G$2:G18)</f>
+        <v>71325.380000000019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(MaxDeg!A18:AX18)</f>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(MaxCol!A18:AX18)</f>
+        <v>3.02</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(MaxPre!A18:AX18)</f>
+        <v>2.96</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(Rand!A18:AX18)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGE(Walk!A18:AX18)</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGE(Walk2!A18:AX18)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I19">
+        <f>SUM(A$2:A19)</f>
+        <v>71375</v>
+      </c>
+      <c r="J19">
+        <f>SUM(B$2:B19)</f>
+        <v>71350.66</v>
+      </c>
+      <c r="K19">
+        <f>SUM(C$2:C19)</f>
+        <v>71368.460000000021</v>
+      </c>
+      <c r="L19">
+        <f>SUM(D$2:D19)</f>
+        <v>71354.28</v>
+      </c>
+      <c r="M19">
+        <f>SUM(E$2:E19)</f>
+        <v>71326.28</v>
+      </c>
+      <c r="N19">
+        <f>SUM(F$2:F19)</f>
+        <v>71328.599999999991</v>
+      </c>
+      <c r="O19">
+        <f>SUM(G$2:G19)</f>
+        <v>71326.420000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(MaxDeg!A19:AX19)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(MaxCol!A19:AX19)</f>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(MaxPre!A19:AX19)</f>
+        <v>1.04</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(Rand!A19:AX19)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(Walk!A19:AX19)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(Walk2!A19:AX19)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I20">
+        <f>SUM(A$2:A20)</f>
+        <v>71378</v>
+      </c>
+      <c r="J20">
+        <f>SUM(B$2:B20)</f>
+        <v>71351.66</v>
+      </c>
+      <c r="K20">
+        <f>SUM(C$2:C20)</f>
+        <v>71371.460000000021</v>
+      </c>
+      <c r="L20">
+        <f>SUM(D$2:D20)</f>
+        <v>71355.319999999992</v>
+      </c>
+      <c r="M20">
+        <f>SUM(E$2:E20)</f>
+        <v>71327.28</v>
+      </c>
+      <c r="N20">
+        <f>SUM(F$2:F20)</f>
+        <v>71329.639999999985</v>
+      </c>
+      <c r="O20">
+        <f>SUM(G$2:G20)</f>
+        <v>71327.440000000017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(MaxDeg!A20:AX20)</f>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(MaxCol!A20:AX20)</f>
+        <v>3.1</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(MaxPre!A20:AX20)</f>
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(Rand!A20:AX20)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(Walk!A20:AX20)</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(Walk2!A20:AX20)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I21">
+        <f>SUM(A$2:A21)</f>
+        <v>71381</v>
+      </c>
+      <c r="J21">
+        <f>SUM(B$2:B21)</f>
+        <v>71354.66</v>
+      </c>
+      <c r="K21">
+        <f>SUM(C$2:C21)</f>
+        <v>71374.560000000027</v>
+      </c>
+      <c r="L21">
+        <f>SUM(D$2:D21)</f>
+        <v>71358.319999999992</v>
+      </c>
+      <c r="M21">
+        <f>SUM(E$2:E21)</f>
+        <v>71328.28</v>
+      </c>
+      <c r="N21">
+        <f>SUM(F$2:F21)</f>
+        <v>71330.639999999985</v>
+      </c>
+      <c r="O21">
+        <f>SUM(G$2:G21)</f>
+        <v>71328.48000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(MaxDeg!A21:AX21)</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(MaxCol!A21:AX21)</f>
+        <v>2.98</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(MaxPre!A21:AX21)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(Rand!A21:AX21)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(Walk!A21:AX21)</f>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(Walk2!A21:AX21)</f>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f>SUM(A$2:A22)</f>
+        <v>71384</v>
+      </c>
+      <c r="J22">
+        <f>SUM(B$2:B22)</f>
+        <v>71355.66</v>
+      </c>
+      <c r="K22">
+        <f>SUM(C$2:C22)</f>
+        <v>71377.540000000023</v>
+      </c>
+      <c r="L22">
+        <f>SUM(D$2:D22)</f>
+        <v>71359.319999999992</v>
+      </c>
+      <c r="M22">
+        <f>SUM(E$2:E22)</f>
+        <v>71329.3</v>
+      </c>
+      <c r="N22">
+        <f>SUM(F$2:F22)</f>
+        <v>71331.639999999985</v>
+      </c>
+      <c r="O22">
+        <f>SUM(G$2:G22)</f>
+        <v>71329.48000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(MaxDeg!A22:AX22)</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(MaxCol!A22:AX22)</f>
+        <v>3.1</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(MaxPre!A22:AX22)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(Rand!A22:AX22)</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(Walk!A22:AX22)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(Walk2!A22:AX22)</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f>SUM(A$2:A23)</f>
+        <v>71387</v>
+      </c>
+      <c r="J23">
+        <f>SUM(B$2:B23)</f>
+        <v>71356.66</v>
+      </c>
+      <c r="K23">
+        <f>SUM(C$2:C23)</f>
+        <v>71380.640000000029</v>
+      </c>
+      <c r="L23">
+        <f>SUM(D$2:D23)</f>
+        <v>71360.319999999992</v>
+      </c>
+      <c r="M23">
+        <f>SUM(E$2:E23)</f>
+        <v>71330.3</v>
+      </c>
+      <c r="N23">
+        <f>SUM(F$2:F23)</f>
+        <v>71332.659999999989</v>
+      </c>
+      <c r="O23">
+        <f>SUM(G$2:G23)</f>
+        <v>71330.48000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(MaxDeg!A23:AX23)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(MaxCol!A23:AX23)</f>
+        <v>3.72</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(MaxPre!A23:AX23)</f>
+        <v>1.06</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(Rand!A23:AX23)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(Walk!A23:AX23)</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE(Walk2!A23:AX23)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I24">
+        <f>SUM(A$2:A24)</f>
+        <v>71390</v>
+      </c>
+      <c r="J24">
+        <f>SUM(B$2:B24)</f>
+        <v>71357.820000000007</v>
+      </c>
+      <c r="K24">
+        <f>SUM(C$2:C24)</f>
+        <v>71384.36000000003</v>
+      </c>
+      <c r="L24">
+        <f>SUM(D$2:D24)</f>
+        <v>71361.37999999999</v>
+      </c>
+      <c r="M24">
+        <f>SUM(E$2:E24)</f>
+        <v>71331.3</v>
+      </c>
+      <c r="N24">
+        <f>SUM(F$2:F24)</f>
+        <v>71333.659999999989</v>
+      </c>
+      <c r="O24">
+        <f>SUM(G$2:G24)</f>
+        <v>71331.520000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(MaxDeg!A24:AX24)</f>
+        <v>1.48</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(MaxCol!A24:AX24)</f>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(MaxPre!A24:AX24)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(Rand!A24:AX24)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(Walk!A24:AX24)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(Walk2!A24:AX24)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I25">
+        <f>SUM(A$2:A25)</f>
+        <v>71393</v>
+      </c>
+      <c r="J25">
+        <f>SUM(B$2:B25)</f>
+        <v>71359.3</v>
+      </c>
+      <c r="K25">
+        <f>SUM(C$2:C25)</f>
+        <v>71387.36000000003</v>
+      </c>
+      <c r="L25">
+        <f>SUM(D$2:D25)</f>
+        <v>71362.499999999985</v>
+      </c>
+      <c r="M25">
+        <f>SUM(E$2:E25)</f>
+        <v>71332.3</v>
+      </c>
+      <c r="N25">
+        <f>SUM(F$2:F25)</f>
+        <v>71334.679999999993</v>
+      </c>
+      <c r="O25">
+        <f>SUM(G$2:G25)</f>
+        <v>71332.540000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(MaxDeg!A25:AX25)</f>
+        <v>3.4</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(MaxCol!A25:AX25)</f>
+        <v>2.86</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(MaxPre!A25:AX25)</f>
+        <v>3.82</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(Rand!A25:AX25)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(Walk!A25:AX25)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(Walk2!A25:AX25)</f>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f>SUM(A$2:A26)</f>
+        <v>71396</v>
+      </c>
+      <c r="J26">
+        <f>SUM(B$2:B26)</f>
+        <v>71362.7</v>
+      </c>
+      <c r="K26">
+        <f>SUM(C$2:C26)</f>
+        <v>71390.22000000003</v>
+      </c>
+      <c r="L26">
+        <f>SUM(D$2:D26)</f>
+        <v>71366.319999999992</v>
+      </c>
+      <c r="M26">
+        <f>SUM(E$2:E26)</f>
+        <v>71333.34</v>
+      </c>
+      <c r="N26">
+        <f>SUM(F$2:F26)</f>
+        <v>71335.7</v>
+      </c>
+      <c r="O26">
+        <f>SUM(G$2:G26)</f>
+        <v>71333.540000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(MaxDeg!A26:AX26)</f>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(MaxCol!A26:AX26)</f>
+        <v>2.82</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(MaxPre!A26:AX26)</f>
+        <v>5.7</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(Rand!A26:AX26)</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(Walk!A26:AX26)</f>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(Walk2!A26:AX26)</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>SUM(A$2:A27)</f>
+        <v>71399</v>
+      </c>
+      <c r="J27">
+        <f>SUM(B$2:B27)</f>
+        <v>71367.759999999995</v>
+      </c>
+      <c r="K27">
+        <f>SUM(C$2:C27)</f>
+        <v>71393.040000000037</v>
+      </c>
+      <c r="L27">
+        <f>SUM(D$2:D27)</f>
+        <v>71372.01999999999</v>
+      </c>
+      <c r="M27">
+        <f>SUM(E$2:E27)</f>
+        <v>71334.34</v>
+      </c>
+      <c r="N27">
+        <f>SUM(F$2:F27)</f>
+        <v>71336.7</v>
+      </c>
+      <c r="O27">
+        <f>SUM(G$2:G27)</f>
+        <v>71334.540000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(MaxDeg!A27:AX27)</f>
+        <v>1.96</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(MaxCol!A27:AX27)</f>
+        <v>1.6</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(MaxPre!A27:AX27)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(Rand!A27:AX27)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>AVERAGE(Walk!A27:AX27)</f>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(Walk2!A27:AX27)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I28">
+        <f>SUM(A$2:A28)</f>
+        <v>71402</v>
+      </c>
+      <c r="J28">
+        <f>SUM(B$2:B28)</f>
+        <v>71369.72</v>
+      </c>
+      <c r="K28">
+        <f>SUM(C$2:C28)</f>
+        <v>71394.640000000043</v>
+      </c>
+      <c r="L28">
+        <f>SUM(D$2:D28)</f>
+        <v>71373.319999999992</v>
+      </c>
+      <c r="M28">
+        <f>SUM(E$2:E28)</f>
+        <v>71335.34</v>
+      </c>
+      <c r="N28">
+        <f>SUM(F$2:F28)</f>
+        <v>71337.7</v>
+      </c>
+      <c r="O28">
+        <f>SUM(G$2:G28)</f>
+        <v>71335.560000000012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(MaxDeg!A28:AX28)</f>
+        <v>3.94</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(MaxCol!A28:AX28)</f>
+        <v>2.94</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(MaxPre!A28:AX28)</f>
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(Rand!A28:AX28)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(Walk!A28:AX28)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(Walk2!A28:AX28)</f>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f>SUM(A$2:A29)</f>
+        <v>71405</v>
+      </c>
+      <c r="J29">
+        <f>SUM(B$2:B29)</f>
+        <v>71373.66</v>
+      </c>
+      <c r="K29">
+        <f>SUM(C$2:C29)</f>
+        <v>71397.580000000045</v>
+      </c>
+      <c r="L29">
+        <f>SUM(D$2:D29)</f>
+        <v>71377.319999999992</v>
+      </c>
+      <c r="M29">
+        <f>SUM(E$2:E29)</f>
+        <v>71336.36</v>
+      </c>
+      <c r="N29">
+        <f>SUM(F$2:F29)</f>
+        <v>71338.720000000001</v>
+      </c>
+      <c r="O29">
+        <f>SUM(G$2:G29)</f>
+        <v>71336.560000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(MaxDeg!A29:AX29)</f>
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE(MaxCol!A29:AX29)</f>
+        <v>3.08</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(MaxPre!A29:AX29)</f>
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(Rand!A29:AX29)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(Walk!A29:AX29)</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(Walk2!A29:AX29)</f>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f>SUM(A$2:A30)</f>
+        <v>71408</v>
+      </c>
+      <c r="J30">
+        <f>SUM(B$2:B30)</f>
+        <v>71378.66</v>
+      </c>
+      <c r="K30">
+        <f>SUM(C$2:C30)</f>
+        <v>71400.660000000047</v>
+      </c>
+      <c r="L30">
+        <f>SUM(D$2:D30)</f>
+        <v>71382.319999999992</v>
+      </c>
+      <c r="M30">
+        <f>SUM(E$2:E30)</f>
+        <v>71337.38</v>
+      </c>
+      <c r="N30">
+        <f>SUM(F$2:F30)</f>
+        <v>71339.72</v>
+      </c>
+      <c r="O30">
+        <f>SUM(G$2:G30)</f>
+        <v>71337.560000000012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(MaxDeg!A30:AX30)</f>
+        <v>2.64</v>
+      </c>
+      <c r="C31">
+        <f>AVERAGE(MaxCol!A30:AX30)</f>
+        <v>3.06</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(MaxPre!A30:AX30)</f>
+        <v>2.84</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGE(Rand!A30:AX30)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(Walk!A30:AX30)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(Walk2!A30:AX30)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I31">
+        <f>SUM(A$2:A31)</f>
+        <v>71411</v>
+      </c>
+      <c r="J31">
+        <f>SUM(B$2:B31)</f>
+        <v>71381.3</v>
+      </c>
+      <c r="K31">
+        <f>SUM(C$2:C31)</f>
+        <v>71403.720000000045</v>
+      </c>
+      <c r="L31">
+        <f>SUM(D$2:D31)</f>
+        <v>71385.159999999989</v>
+      </c>
+      <c r="M31">
+        <f>SUM(E$2:E31)</f>
+        <v>71338.38</v>
+      </c>
+      <c r="N31">
+        <f>SUM(F$2:F31)</f>
+        <v>71340.740000000005</v>
+      </c>
+      <c r="O31">
+        <f>SUM(G$2:G31)</f>
+        <v>71338.580000000016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(MaxDeg!A31:AX31)</f>
+        <v>1.44</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(MaxCol!A31:AX31)</f>
+        <v>1.84</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(MaxPre!A31:AX31)</f>
+        <v>1.2</v>
+      </c>
+      <c r="E32">
+        <f>AVERAGE(Rand!A31:AX31)</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>AVERAGE(Walk!A31:AX31)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGE(Walk2!A31:AX31)</f>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f>SUM(A$2:A32)</f>
+        <v>71414</v>
+      </c>
+      <c r="J32">
+        <f>SUM(B$2:B32)</f>
+        <v>71382.740000000005</v>
+      </c>
+      <c r="K32">
+        <f>SUM(C$2:C32)</f>
+        <v>71405.560000000041</v>
+      </c>
+      <c r="L32">
+        <f>SUM(D$2:D32)</f>
+        <v>71386.359999999986</v>
+      </c>
+      <c r="M32">
+        <f>SUM(E$2:E32)</f>
+        <v>71339.38</v>
+      </c>
+      <c r="N32">
+        <f>SUM(F$2:F32)</f>
+        <v>71341.78</v>
+      </c>
+      <c r="O32">
+        <f>SUM(G$2:G32)</f>
+        <v>71339.580000000016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(MaxDeg!A32:AX32)</f>
+        <v>2.98</v>
+      </c>
+      <c r="C33">
+        <f>AVERAGE(MaxCol!A32:AX32)</f>
+        <v>2.98</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(MaxPre!A32:AX32)</f>
+        <v>2.96</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(Rand!A32:AX32)</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(Walk!A32:AX32)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(Walk2!A32:AX32)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I33">
+        <f>SUM(A$2:A33)</f>
+        <v>71417</v>
+      </c>
+      <c r="J33">
+        <f>SUM(B$2:B33)</f>
+        <v>71385.72</v>
+      </c>
+      <c r="K33">
+        <f>SUM(C$2:C33)</f>
+        <v>71408.540000000037</v>
+      </c>
+      <c r="L33">
+        <f>SUM(D$2:D33)</f>
+        <v>71389.319999999992</v>
+      </c>
+      <c r="M33">
+        <f>SUM(E$2:E33)</f>
+        <v>71340.38</v>
+      </c>
+      <c r="N33">
+        <f>SUM(F$2:F33)</f>
+        <v>71342.8</v>
+      </c>
+      <c r="O33">
+        <f>SUM(G$2:G33)</f>
+        <v>71340.60000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(MaxDeg!A33:AX33)</f>
+        <v>1.92</v>
+      </c>
+      <c r="C34">
+        <f>AVERAGE(MaxCol!A33:AX33)</f>
+        <v>3.7</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(MaxPre!A33:AX33)</f>
+        <v>1.96</v>
+      </c>
+      <c r="E34">
+        <f>AVERAGE(Rand!A33:AX33)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(Walk!A33:AX33)</f>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(Walk2!A33:AX33)</f>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f>SUM(A$2:A34)</f>
+        <v>71420</v>
+      </c>
+      <c r="J34">
+        <f>SUM(B$2:B34)</f>
+        <v>71387.64</v>
+      </c>
+      <c r="K34">
+        <f>SUM(C$2:C34)</f>
+        <v>71412.240000000034</v>
+      </c>
+      <c r="L34">
+        <f>SUM(D$2:D34)</f>
+        <v>71391.28</v>
+      </c>
+      <c r="M34">
+        <f>SUM(E$2:E34)</f>
+        <v>71341.42</v>
+      </c>
+      <c r="N34">
+        <f>SUM(F$2:F34)</f>
+        <v>71343.8</v>
+      </c>
+      <c r="O34">
+        <f>SUM(G$2:G34)</f>
+        <v>71341.60000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <f>AVERAGE(MaxDeg!A34:AX34)</f>
+        <v>1.18</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE(MaxCol!A34:AX34)</f>
+        <v>2.98</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(MaxPre!A34:AX34)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E35">
+        <f>AVERAGE(Rand!A34:AX34)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(Walk!A34:AX34)</f>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(Walk2!A34:AX34)</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f>SUM(A$2:A35)</f>
+        <v>71423</v>
+      </c>
+      <c r="J35">
+        <f>SUM(B$2:B35)</f>
+        <v>71388.819999999992</v>
+      </c>
+      <c r="K35">
+        <f>SUM(C$2:C35)</f>
+        <v>71415.22000000003</v>
+      </c>
+      <c r="L35">
+        <f>SUM(D$2:D35)</f>
+        <v>71392.44</v>
+      </c>
+      <c r="M35">
+        <f>SUM(E$2:E35)</f>
+        <v>71342.44</v>
+      </c>
+      <c r="N35">
+        <f>SUM(F$2:F35)</f>
+        <v>71344.800000000003</v>
+      </c>
+      <c r="O35">
+        <f>SUM(G$2:G35)</f>
+        <v>71342.60000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(MaxDeg!A35:AX35)</f>
+        <v>1.92</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(MaxCol!A35:AX35)</f>
+        <v>3.04</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(MaxPre!A35:AX35)</f>
+        <v>1.9</v>
+      </c>
+      <c r="E36">
+        <f>AVERAGE(Rand!A35:AX35)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F36">
+        <f>AVERAGE(Walk!A35:AX35)</f>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(Walk2!A35:AX35)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I36">
+        <f>SUM(A$2:A36)</f>
+        <v>71426</v>
+      </c>
+      <c r="J36">
+        <f>SUM(B$2:B36)</f>
+        <v>71390.739999999991</v>
+      </c>
+      <c r="K36">
+        <f>SUM(C$2:C36)</f>
+        <v>71418.260000000024</v>
+      </c>
+      <c r="L36">
+        <f>SUM(D$2:D36)</f>
+        <v>71394.34</v>
+      </c>
+      <c r="M36">
+        <f>SUM(E$2:E36)</f>
+        <v>71343.460000000006</v>
+      </c>
+      <c r="N36">
+        <f>SUM(F$2:F36)</f>
+        <v>71345.8</v>
+      </c>
+      <c r="O36">
+        <f>SUM(G$2:G36)</f>
+        <v>71343.620000000024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f>AVERAGE(MaxDeg!A36:AX36)</f>
+        <v>1.98</v>
+      </c>
+      <c r="C37">
+        <f>AVERAGE(MaxCol!A36:AX36)</f>
+        <v>2.96</v>
+      </c>
+      <c r="D37">
+        <f>AVERAGE(MaxPre!A36:AX36)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E37">
+        <f>AVERAGE(Rand!A36:AX36)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F37">
+        <f>AVERAGE(Walk!A36:AX36)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G37">
+        <f>AVERAGE(Walk2!A36:AX36)</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f>SUM(A$2:A37)</f>
+        <v>71429</v>
+      </c>
+      <c r="J37">
+        <f>SUM(B$2:B37)</f>
+        <v>71392.719999999987</v>
+      </c>
+      <c r="K37">
+        <f>SUM(C$2:C37)</f>
+        <v>71421.22000000003</v>
+      </c>
+      <c r="L37">
+        <f>SUM(D$2:D37)</f>
+        <v>71396.319999999992</v>
+      </c>
+      <c r="M37">
+        <f>SUM(E$2:E37)</f>
+        <v>71344.48000000001</v>
+      </c>
+      <c r="N37">
+        <f>SUM(F$2:F37)</f>
+        <v>71346.820000000007</v>
+      </c>
+      <c r="O37">
+        <f>SUM(G$2:G37)</f>
+        <v>71344.620000000024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(MaxDeg!A37:AX37)</f>
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>AVERAGE(MaxCol!A37:AX37)</f>
+        <v>3.06</v>
+      </c>
+      <c r="D38">
+        <f>AVERAGE(MaxPre!A37:AX37)</f>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f>AVERAGE(Rand!A37:AX37)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f>AVERAGE(Walk!A37:AX37)</f>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(Walk2!A37:AX37)</f>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f>SUM(A$2:A38)</f>
+        <v>71431</v>
+      </c>
+      <c r="J38">
+        <f>SUM(B$2:B38)</f>
+        <v>71393.719999999987</v>
+      </c>
+      <c r="K38">
+        <f>SUM(C$2:C38)</f>
+        <v>71424.280000000028</v>
+      </c>
+      <c r="L38">
+        <f>SUM(D$2:D38)</f>
+        <v>71397.319999999992</v>
+      </c>
+      <c r="M38">
+        <f>SUM(E$2:E38)</f>
+        <v>71345.48000000001</v>
+      </c>
+      <c r="N38">
+        <f>SUM(F$2:F38)</f>
+        <v>71347.820000000007</v>
+      </c>
+      <c r="O38">
+        <f>SUM(G$2:G38)</f>
+        <v>71345.620000000024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <f>AVERAGE(MaxDeg!A38:AX38)</f>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>AVERAGE(MaxCol!A38:AX38)</f>
+        <v>1.62</v>
+      </c>
+      <c r="D39">
+        <f>AVERAGE(MaxPre!A38:AX38)</f>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(Rand!A38:AX38)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(Walk!A38:AX38)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G39">
+        <f>AVERAGE(Walk2!A38:AX38)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I39">
+        <f>SUM(A$2:A39)</f>
+        <v>71433</v>
+      </c>
+      <c r="J39">
+        <f>SUM(B$2:B39)</f>
+        <v>71394.719999999987</v>
+      </c>
+      <c r="K39">
+        <f>SUM(C$2:C39)</f>
+        <v>71425.900000000023</v>
+      </c>
+      <c r="L39">
+        <f>SUM(D$2:D39)</f>
+        <v>71398.319999999992</v>
+      </c>
+      <c r="M39">
+        <f>SUM(E$2:E39)</f>
+        <v>71346.500000000015</v>
+      </c>
+      <c r="N39">
+        <f>SUM(F$2:F39)</f>
+        <v>71348.86</v>
+      </c>
+      <c r="O39">
+        <f>SUM(G$2:G39)</f>
+        <v>71346.640000000029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <f>AVERAGE(MaxDeg!A39:AX39)</f>
+        <v>1.98</v>
+      </c>
+      <c r="C40">
+        <f>AVERAGE(MaxCol!A39:AX39)</f>
+        <v>2.92</v>
+      </c>
+      <c r="D40">
+        <f>AVERAGE(MaxPre!A39:AX39)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E40">
+        <f>AVERAGE(Rand!A39:AX39)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F40">
+        <f>AVERAGE(Walk!A39:AX39)</f>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f>AVERAGE(Walk2!A39:AX39)</f>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f>SUM(A$2:A40)</f>
+        <v>71435</v>
+      </c>
+      <c r="J40">
+        <f>SUM(B$2:B40)</f>
+        <v>71396.699999999983</v>
+      </c>
+      <c r="K40">
+        <f>SUM(C$2:C40)</f>
+        <v>71428.820000000022</v>
+      </c>
+      <c r="L40">
+        <f>SUM(D$2:D40)</f>
+        <v>71400.299999999988</v>
+      </c>
+      <c r="M40">
+        <f>SUM(E$2:E40)</f>
+        <v>71347.520000000019</v>
+      </c>
+      <c r="N40">
+        <f>SUM(F$2:F40)</f>
+        <v>71349.86</v>
+      </c>
+      <c r="O40">
+        <f>SUM(G$2:G40)</f>
+        <v>71347.640000000029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <f>AVERAGE(MaxDeg!A40:AX40)</f>
+        <v>1.94</v>
+      </c>
+      <c r="C41">
+        <f>AVERAGE(MaxCol!A40:AX40)</f>
+        <v>2.72</v>
+      </c>
+      <c r="D41">
+        <f>AVERAGE(MaxPre!A40:AX40)</f>
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <f>AVERAGE(Rand!A40:AX40)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f>AVERAGE(Walk!A40:AX40)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE(Walk2!A40:AX40)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I41">
+        <f>SUM(A$2:A41)</f>
+        <v>71437</v>
+      </c>
+      <c r="J41">
+        <f>SUM(B$2:B41)</f>
+        <v>71398.639999999985</v>
+      </c>
+      <c r="K41">
+        <f>SUM(C$2:C41)</f>
+        <v>71431.540000000023</v>
+      </c>
+      <c r="L41">
+        <f>SUM(D$2:D41)</f>
+        <v>71402.299999999988</v>
+      </c>
+      <c r="M41">
+        <f>SUM(E$2:E41)</f>
+        <v>71348.520000000019</v>
+      </c>
+      <c r="N41">
+        <f>SUM(F$2:F41)</f>
+        <v>71350.880000000005</v>
+      </c>
+      <c r="O41">
+        <f>SUM(G$2:G41)</f>
+        <v>71348.660000000033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <f>AVERAGE(MaxDeg!A41:AX41)</f>
+        <v>1.2</v>
+      </c>
+      <c r="C42">
+        <f>AVERAGE(MaxCol!A41:AX41)</f>
+        <v>3.7</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(MaxPre!A41:AX41)</f>
+        <v>1.22</v>
+      </c>
+      <c r="E42">
+        <f>AVERAGE(Rand!A41:AX41)</f>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(Walk!A41:AX41)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(Walk2!A41:AX41)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I42">
+        <f>SUM(A$2:A42)</f>
+        <v>71439</v>
+      </c>
+      <c r="J42">
+        <f>SUM(B$2:B42)</f>
+        <v>71399.839999999982</v>
+      </c>
+      <c r="K42">
+        <f>SUM(C$2:C42)</f>
+        <v>71435.24000000002</v>
+      </c>
+      <c r="L42">
+        <f>SUM(D$2:D42)</f>
+        <v>71403.51999999999</v>
+      </c>
+      <c r="M42">
+        <f>SUM(E$2:E42)</f>
+        <v>71349.520000000019</v>
+      </c>
+      <c r="N42">
+        <f>SUM(F$2:F42)</f>
+        <v>71351.900000000009</v>
+      </c>
+      <c r="O42">
+        <f>SUM(G$2:G42)</f>
+        <v>71349.700000000026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <f>AVERAGE(MaxDeg!A42:AX42)</f>
+        <v>1.22</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGE(MaxCol!A42:AX42)</f>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGE(MaxPre!A42:AX42)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(Rand!A42:AX42)</f>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f>AVERAGE(Walk!A42:AX42)</f>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f>AVERAGE(Walk2!A42:AX42)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I43">
+        <f>SUM(A$2:A43)</f>
+        <v>71441</v>
+      </c>
+      <c r="J43">
+        <f>SUM(B$2:B43)</f>
+        <v>71401.059999999983</v>
+      </c>
+      <c r="K43">
+        <f>SUM(C$2:C43)</f>
+        <v>71438.24000000002</v>
+      </c>
+      <c r="L43">
+        <f>SUM(D$2:D43)</f>
+        <v>71404.599999999991</v>
+      </c>
+      <c r="M43">
+        <f>SUM(E$2:E43)</f>
+        <v>71350.520000000019</v>
+      </c>
+      <c r="N43">
+        <f>SUM(F$2:F43)</f>
+        <v>71352.900000000009</v>
+      </c>
+      <c r="O43">
+        <f>SUM(G$2:G43)</f>
+        <v>71350.74000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(MaxDeg!A43:AX43)</f>
+        <v>1.84</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGE(MaxCol!A43:AX43)</f>
+        <v>3.62</v>
+      </c>
+      <c r="D44">
+        <f>AVERAGE(MaxPre!A43:AX43)</f>
+        <v>1.92</v>
+      </c>
+      <c r="E44">
+        <f>AVERAGE(Rand!A43:AX43)</f>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f>AVERAGE(Walk!A43:AX43)</f>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>AVERAGE(Walk2!A43:AX43)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I44">
+        <f>SUM(A$2:A44)</f>
+        <v>71443</v>
+      </c>
+      <c r="J44">
+        <f>SUM(B$2:B44)</f>
+        <v>71402.89999999998</v>
+      </c>
+      <c r="K44">
+        <f>SUM(C$2:C44)</f>
+        <v>71441.860000000015</v>
+      </c>
+      <c r="L44">
+        <f>SUM(D$2:D44)</f>
+        <v>71406.51999999999</v>
+      </c>
+      <c r="M44">
+        <f>SUM(E$2:E44)</f>
+        <v>71351.520000000019</v>
+      </c>
+      <c r="N44">
+        <f>SUM(F$2:F44)</f>
+        <v>71353.900000000009</v>
+      </c>
+      <c r="O44">
+        <f>SUM(G$2:G44)</f>
+        <v>71351.760000000024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <f>AVERAGE(MaxDeg!A44:AX44)</f>
+        <v>1.18</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(MaxCol!A44:AX44)</f>
+        <v>2.6</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(MaxPre!A44:AX44)</f>
+        <v>1.06</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(Rand!A44:AX44)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(Walk!A44:AX44)</f>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f>AVERAGE(Walk2!A44:AX44)</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f>SUM(A$2:A45)</f>
+        <v>71445</v>
+      </c>
+      <c r="J45">
+        <f>SUM(B$2:B45)</f>
+        <v>71404.079999999973</v>
+      </c>
+      <c r="K45">
+        <f>SUM(C$2:C45)</f>
+        <v>71444.460000000021</v>
+      </c>
+      <c r="L45">
+        <f>SUM(D$2:D45)</f>
+        <v>71407.579999999987</v>
+      </c>
+      <c r="M45">
+        <f>SUM(E$2:E45)</f>
+        <v>71352.540000000023</v>
+      </c>
+      <c r="N45">
+        <f>SUM(F$2:F45)</f>
+        <v>71354.900000000009</v>
+      </c>
+      <c r="O45">
+        <f>SUM(G$2:G45)</f>
+        <v>71352.760000000024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <f>AVERAGE(MaxDeg!A45:AX45)</f>
+        <v>2.04</v>
+      </c>
+      <c r="C46">
+        <f>AVERAGE(MaxCol!A45:AX45)</f>
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f>AVERAGE(MaxPre!A45:AX45)</f>
+        <v>1.82</v>
+      </c>
+      <c r="E46">
+        <f>AVERAGE(Rand!A45:AX45)</f>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f>AVERAGE(Walk!A45:AX45)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(Walk2!A45:AX45)</f>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f>SUM(A$2:A46)</f>
+        <v>71447</v>
+      </c>
+      <c r="J46">
+        <f>SUM(B$2:B46)</f>
+        <v>71406.119999999966</v>
+      </c>
+      <c r="K46">
+        <f>SUM(C$2:C46)</f>
+        <v>71446.460000000021</v>
+      </c>
+      <c r="L46">
+        <f>SUM(D$2:D46)</f>
+        <v>71409.399999999994</v>
+      </c>
+      <c r="M46">
+        <f>SUM(E$2:E46)</f>
+        <v>71353.540000000023</v>
+      </c>
+      <c r="N46">
+        <f>SUM(F$2:F46)</f>
+        <v>71355.920000000013</v>
+      </c>
+      <c r="O46">
+        <f>SUM(G$2:G46)</f>
+        <v>71353.760000000024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <f>AVERAGE(MaxDeg!A46:AX46)</f>
+        <v>2.7</v>
+      </c>
+      <c r="C47">
+        <f>AVERAGE(MaxCol!A46:AX46)</f>
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE(MaxPre!A46:AX46)</f>
+        <v>2.68</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE(Rand!A46:AX46)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F47">
+        <f>AVERAGE(Walk!A46:AX46)</f>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f>AVERAGE(Walk2!A46:AX46)</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f>SUM(A$2:A47)</f>
+        <v>71449</v>
+      </c>
+      <c r="J47">
+        <f>SUM(B$2:B47)</f>
+        <v>71408.819999999963</v>
+      </c>
+      <c r="K47">
+        <f>SUM(C$2:C47)</f>
+        <v>71448.460000000021</v>
+      </c>
+      <c r="L47">
+        <f>SUM(D$2:D47)</f>
+        <v>71412.079999999987</v>
+      </c>
+      <c r="M47">
+        <f>SUM(E$2:E47)</f>
+        <v>71354.560000000027</v>
+      </c>
+      <c r="N47">
+        <f>SUM(F$2:F47)</f>
+        <v>71356.920000000013</v>
+      </c>
+      <c r="O47">
+        <f>SUM(G$2:G47)</f>
+        <v>71354.760000000024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <f>AVERAGE(MaxDeg!A47:AX47)</f>
+        <v>1.34</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE(MaxCol!A47:AX47)</f>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE(MaxPre!A47:AX47)</f>
+        <v>1.32</v>
+      </c>
+      <c r="E48">
+        <f>AVERAGE(Rand!A47:AX47)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F48">
+        <f>AVERAGE(Walk!A47:AX47)</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>AVERAGE(Walk2!A47:AX47)</f>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f>SUM(A$2:A48)</f>
+        <v>71451</v>
+      </c>
+      <c r="J48">
+        <f>SUM(B$2:B48)</f>
+        <v>71410.15999999996</v>
+      </c>
+      <c r="K48">
+        <f>SUM(C$2:C48)</f>
+        <v>71449.460000000021</v>
+      </c>
+      <c r="L48">
+        <f>SUM(D$2:D48)</f>
+        <v>71413.399999999994</v>
+      </c>
+      <c r="M48">
+        <f>SUM(E$2:E48)</f>
+        <v>71355.60000000002</v>
+      </c>
+      <c r="N48">
+        <f>SUM(F$2:F48)</f>
+        <v>71357.920000000013</v>
+      </c>
+      <c r="O48">
+        <f>SUM(G$2:G48)</f>
+        <v>71355.760000000024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <f>AVERAGE(MaxDeg!A48:AX48)</f>
+        <v>2.9</v>
+      </c>
+      <c r="C49">
+        <f>AVERAGE(MaxCol!A48:AX48)</f>
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <f>AVERAGE(MaxPre!A48:AX48)</f>
+        <v>2.9</v>
+      </c>
+      <c r="E49">
+        <f>AVERAGE(Rand!A48:AX48)</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f>AVERAGE(Walk!A48:AX48)</f>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f>AVERAGE(Walk2!A48:AX48)</f>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f>SUM(A$2:A49)</f>
+        <v>71453</v>
+      </c>
+      <c r="J49">
+        <f>SUM(B$2:B49)</f>
+        <v>71413.059999999954</v>
+      </c>
+      <c r="K49">
+        <f>SUM(C$2:C49)</f>
+        <v>71451.460000000021</v>
+      </c>
+      <c r="L49">
+        <f>SUM(D$2:D49)</f>
+        <v>71416.299999999988</v>
+      </c>
+      <c r="M49">
+        <f>SUM(E$2:E49)</f>
+        <v>71356.60000000002</v>
+      </c>
+      <c r="N49">
+        <f>SUM(F$2:F49)</f>
+        <v>71358.920000000013</v>
+      </c>
+      <c r="O49">
+        <f>SUM(G$2:G49)</f>
+        <v>71356.760000000024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <f>AVERAGE(MaxDeg!A49:AX49)</f>
+        <v>2.04</v>
+      </c>
+      <c r="C50">
+        <f>AVERAGE(MaxCol!A49:AX49)</f>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f>AVERAGE(MaxPre!A49:AX49)</f>
+        <v>2.12</v>
+      </c>
+      <c r="E50">
+        <f>AVERAGE(Rand!A49:AX49)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(Walk!A49:AX49)</f>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f>AVERAGE(Walk2!A49:AX49)</f>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f>SUM(A$2:A50)</f>
+        <v>71455</v>
+      </c>
+      <c r="J50">
+        <f>SUM(B$2:B50)</f>
+        <v>71415.099999999948</v>
+      </c>
+      <c r="K50">
+        <f>SUM(C$2:C50)</f>
+        <v>71452.460000000021</v>
+      </c>
+      <c r="L50">
+        <f>SUM(D$2:D50)</f>
+        <v>71418.419999999984</v>
+      </c>
+      <c r="M50">
+        <f>SUM(E$2:E50)</f>
+        <v>71357.620000000024</v>
+      </c>
+      <c r="N50">
+        <f>SUM(F$2:F50)</f>
+        <v>71359.920000000013</v>
+      </c>
+      <c r="O50">
+        <f>SUM(G$2:G50)</f>
+        <v>71357.760000000024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE(MaxDeg!A50:AX50)</f>
+        <v>2.48</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE(MaxCol!A50:AX50)</f>
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>AVERAGE(MaxPre!A50:AX50)</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E51">
+        <f>AVERAGE(Rand!A50:AX50)</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(Walk!A50:AX50)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G51">
+        <f>AVERAGE(Walk2!A50:AX50)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I51">
+        <f>SUM(A$2:A51)</f>
+        <v>71457</v>
+      </c>
+      <c r="J51">
+        <f>SUM(B$2:B51)</f>
+        <v>71417.579999999944</v>
+      </c>
+      <c r="K51">
+        <f>SUM(C$2:C51)</f>
+        <v>71454.460000000021</v>
+      </c>
+      <c r="L51">
+        <f>SUM(D$2:D51)</f>
+        <v>71420.639999999985</v>
+      </c>
+      <c r="M51">
+        <f>SUM(E$2:E51)</f>
+        <v>71358.620000000024</v>
+      </c>
+      <c r="N51">
+        <f>SUM(F$2:F51)</f>
+        <v>71360.940000000017</v>
+      </c>
+      <c r="O51">
+        <f>SUM(G$2:G51)</f>
+        <v>71358.780000000028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(MaxDeg!A51:AX51)</f>
+        <v>3.02</v>
+      </c>
+      <c r="C52">
+        <f>AVERAGE(MaxCol!A51:AX51)</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f>AVERAGE(MaxPre!A51:AX51)</f>
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <f>AVERAGE(Rand!A51:AX51)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F52">
+        <f>AVERAGE(Walk!A51:AX51)</f>
+        <v>1.22</v>
+      </c>
+      <c r="G52">
+        <f>AVERAGE(Walk2!A51:AX51)</f>
+        <v>1.34</v>
+      </c>
+      <c r="I52">
+        <f>SUM(A$2:A52)</f>
+        <v>71459</v>
+      </c>
+      <c r="J52">
+        <f>SUM(B$2:B52)</f>
+        <v>71420.599999999948</v>
+      </c>
+      <c r="K52">
+        <f>SUM(C$2:C52)</f>
+        <v>71455.460000000021</v>
+      </c>
+      <c r="L52">
+        <f>SUM(D$2:D52)</f>
+        <v>71423.639999999985</v>
+      </c>
+      <c r="M52">
+        <f>SUM(E$2:E52)</f>
+        <v>71359.820000000022</v>
+      </c>
+      <c r="N52">
+        <f>SUM(F$2:F52)</f>
+        <v>71362.160000000018</v>
+      </c>
+      <c r="O52">
+        <f>SUM(G$2:G52)</f>
+        <v>71360.120000000024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE(MaxDeg!A52:AX52)</f>
+        <v>1.56</v>
+      </c>
+      <c r="C53">
+        <f>AVERAGE(MaxCol!A52:AX52)</f>
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f>AVERAGE(MaxPre!A52:AX52)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E53">
+        <f>AVERAGE(Rand!A52:AX52)</f>
+        <v>1.34</v>
+      </c>
+      <c r="F53">
+        <f>AVERAGE(Walk!A52:AX52)</f>
+        <v>1.28</v>
+      </c>
+      <c r="G53">
+        <f>AVERAGE(Walk2!A52:AX52)</f>
+        <v>1.24</v>
+      </c>
+      <c r="I53">
+        <f>SUM(A$2:A53)</f>
+        <v>71461</v>
+      </c>
+      <c r="J53">
+        <f>SUM(B$2:B53)</f>
+        <v>71422.159999999945</v>
+      </c>
+      <c r="K53">
+        <f>SUM(C$2:C53)</f>
+        <v>71457.460000000021</v>
+      </c>
+      <c r="L53">
+        <f>SUM(D$2:D53)</f>
+        <v>71424.939999999988</v>
+      </c>
+      <c r="M53">
+        <f>SUM(E$2:E53)</f>
+        <v>71361.160000000018</v>
+      </c>
+      <c r="N53">
+        <f>SUM(F$2:F53)</f>
+        <v>71363.440000000017</v>
+      </c>
+      <c r="O53">
+        <f>SUM(G$2:G53)</f>
+        <v>71361.36000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <f>AVERAGE(MaxDeg!A53:AX53)</f>
+        <v>2.94</v>
+      </c>
+      <c r="C54">
+        <f>AVERAGE(MaxCol!A53:AX53)</f>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <f>AVERAGE(MaxPre!A53:AX53)</f>
+        <v>2.94</v>
+      </c>
+      <c r="E54">
+        <f>AVERAGE(Rand!A53:AX53)</f>
+        <v>1.18</v>
+      </c>
+      <c r="F54">
+        <f>AVERAGE(Walk!A53:AX53)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G54">
+        <f>AVERAGE(Walk2!A53:AX53)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I54">
+        <f>SUM(A$2:A54)</f>
+        <v>71463</v>
+      </c>
+      <c r="J54">
+        <f>SUM(B$2:B54)</f>
+        <v>71425.099999999948</v>
+      </c>
+      <c r="K54">
+        <f>SUM(C$2:C54)</f>
+        <v>71458.460000000021</v>
+      </c>
+      <c r="L54">
+        <f>SUM(D$2:D54)</f>
+        <v>71427.87999999999</v>
+      </c>
+      <c r="M54">
+        <f>SUM(E$2:E54)</f>
+        <v>71362.340000000011</v>
+      </c>
+      <c r="N54">
+        <f>SUM(F$2:F54)</f>
+        <v>71364.560000000012</v>
+      </c>
+      <c r="O54">
+        <f>SUM(G$2:G54)</f>
+        <v>71362.400000000023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <f>AVERAGE(MaxDeg!A54:AX54)</f>
+        <v>2.72</v>
+      </c>
+      <c r="C55">
+        <f>AVERAGE(MaxCol!A54:AX54)</f>
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <f>AVERAGE(MaxPre!A54:AX54)</f>
+        <v>2.64</v>
+      </c>
+      <c r="E55">
+        <f>AVERAGE(Rand!A54:AX54)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F55">
+        <f>AVERAGE(Walk!A54:AX54)</f>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f>AVERAGE(Walk2!A54:AX54)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I55">
+        <f>SUM(A$2:A55)</f>
+        <v>71465</v>
+      </c>
+      <c r="J55">
+        <f>SUM(B$2:B55)</f>
+        <v>71427.819999999949</v>
+      </c>
+      <c r="K55">
+        <f>SUM(C$2:C55)</f>
+        <v>71460.460000000021</v>
+      </c>
+      <c r="L55">
+        <f>SUM(D$2:D55)</f>
+        <v>71430.51999999999</v>
+      </c>
+      <c r="M55">
+        <f>SUM(E$2:E55)</f>
+        <v>71363.38</v>
+      </c>
+      <c r="N55">
+        <f>SUM(F$2:F55)</f>
+        <v>71365.560000000012</v>
+      </c>
+      <c r="O55">
+        <f>SUM(G$2:G55)</f>
+        <v>71363.420000000027</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <f>AVERAGE(MaxDeg!A55:AX55)</f>
+        <v>3.48</v>
+      </c>
+      <c r="C56">
+        <f>AVERAGE(MaxCol!A55:AX55)</f>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f>AVERAGE(MaxPre!A55:AX55)</f>
+        <v>3.88</v>
+      </c>
+      <c r="E56">
+        <f>AVERAGE(Rand!A55:AX55)</f>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f>AVERAGE(Walk!A55:AX55)</f>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f>AVERAGE(Walk2!A55:AX55)</f>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f>SUM(A$2:A56)</f>
+        <v>71467</v>
+      </c>
+      <c r="J56">
+        <f>SUM(B$2:B56)</f>
+        <v>71431.299999999945</v>
+      </c>
+      <c r="K56">
+        <f>SUM(C$2:C56)</f>
+        <v>71461.460000000021</v>
+      </c>
+      <c r="L56">
+        <f>SUM(D$2:D56)</f>
+        <v>71434.399999999994</v>
+      </c>
+      <c r="M56">
+        <f>SUM(E$2:E56)</f>
+        <v>71364.38</v>
+      </c>
+      <c r="N56">
+        <f>SUM(F$2:F56)</f>
+        <v>71366.560000000012</v>
+      </c>
+      <c r="O56">
+        <f>SUM(G$2:G56)</f>
+        <v>71364.420000000027</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(MaxDeg!A56:AX56)</f>
+        <v>2.94</v>
+      </c>
+      <c r="C57">
+        <f>AVERAGE(MaxCol!A56:AX56)</f>
+        <v>1.94</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(MaxPre!A56:AX56)</f>
+        <v>2.98</v>
+      </c>
+      <c r="E57">
+        <f>AVERAGE(Rand!A56:AX56)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F57">
+        <f>AVERAGE(Walk!A56:AX56)</f>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f>AVERAGE(Walk2!A56:AX56)</f>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f>SUM(A$2:A57)</f>
+        <v>71469</v>
+      </c>
+      <c r="J57">
+        <f>SUM(B$2:B57)</f>
+        <v>71434.239999999947</v>
+      </c>
+      <c r="K57">
+        <f>SUM(C$2:C57)</f>
+        <v>71463.400000000023</v>
+      </c>
+      <c r="L57">
+        <f>SUM(D$2:D57)</f>
+        <v>71437.37999999999</v>
+      </c>
+      <c r="M57">
+        <f>SUM(E$2:E57)</f>
+        <v>71365.400000000009</v>
+      </c>
+      <c r="N57">
+        <f>SUM(F$2:F57)</f>
+        <v>71367.560000000012</v>
+      </c>
+      <c r="O57">
+        <f>SUM(G$2:G57)</f>
+        <v>71365.420000000027</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <f>AVERAGE(MaxDeg!A57:AX57)</f>
+        <v>2.9</v>
+      </c>
+      <c r="C58">
+        <f>AVERAGE(MaxCol!A57:AX57)</f>
+        <v>1.06</v>
+      </c>
+      <c r="D58">
+        <f>AVERAGE(MaxPre!A57:AX57)</f>
+        <v>2.96</v>
+      </c>
+      <c r="E58">
+        <f>AVERAGE(Rand!A57:AX57)</f>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f>AVERAGE(Walk!A57:AX57)</f>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f>AVERAGE(Walk2!A57:AX57)</f>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f>SUM(A$2:A58)</f>
+        <v>71471</v>
+      </c>
+      <c r="J58">
+        <f>SUM(B$2:B58)</f>
+        <v>71437.139999999941</v>
+      </c>
+      <c r="K58">
+        <f>SUM(C$2:C58)</f>
+        <v>71464.460000000021</v>
+      </c>
+      <c r="L58">
+        <f>SUM(D$2:D58)</f>
+        <v>71440.34</v>
+      </c>
+      <c r="M58">
+        <f>SUM(E$2:E58)</f>
+        <v>71366.400000000009</v>
+      </c>
+      <c r="N58">
+        <f>SUM(F$2:F58)</f>
+        <v>71368.560000000012</v>
+      </c>
+      <c r="O58">
+        <f>SUM(G$2:G58)</f>
+        <v>71366.420000000027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <f>AVERAGE(MaxDeg!A58:AX58)</f>
+        <v>2.88</v>
+      </c>
+      <c r="C59">
+        <f>AVERAGE(MaxCol!A58:AX58)</f>
+        <v>1.92</v>
+      </c>
+      <c r="D59">
+        <f>AVERAGE(MaxPre!A58:AX58)</f>
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <f>AVERAGE(Rand!A58:AX58)</f>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f>AVERAGE(Walk!A58:AX58)</f>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f>AVERAGE(Walk2!A58:AX58)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I59">
+        <f>SUM(A$2:A59)</f>
+        <v>71473</v>
+      </c>
+      <c r="J59">
+        <f>SUM(B$2:B59)</f>
+        <v>71440.019999999946</v>
+      </c>
+      <c r="K59">
+        <f>SUM(C$2:C59)</f>
+        <v>71466.380000000019</v>
+      </c>
+      <c r="L59">
+        <f>SUM(D$2:D59)</f>
+        <v>71443.34</v>
+      </c>
+      <c r="M59">
+        <f>SUM(E$2:E59)</f>
+        <v>71367.400000000009</v>
+      </c>
+      <c r="N59">
+        <f>SUM(F$2:F59)</f>
+        <v>71369.560000000012</v>
+      </c>
+      <c r="O59">
+        <f>SUM(G$2:G59)</f>
+        <v>71367.440000000031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <f>AVERAGE(MaxDeg!A59:AX59)</f>
+        <v>1.44</v>
+      </c>
+      <c r="C60">
+        <f>AVERAGE(MaxCol!A59:AX59)</f>
+        <v>1.08</v>
+      </c>
+      <c r="D60">
+        <f>AVERAGE(MaxPre!A59:AX59)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E60">
+        <f>AVERAGE(Rand!A59:AX59)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F60">
+        <f>AVERAGE(Walk!A59:AX59)</f>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f>AVERAGE(Walk2!A59:AX59)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I60">
+        <f>SUM(A$2:A60)</f>
+        <v>71475</v>
+      </c>
+      <c r="J60">
+        <f>SUM(B$2:B60)</f>
+        <v>71441.459999999948</v>
+      </c>
+      <c r="K60">
+        <f>SUM(C$2:C60)</f>
+        <v>71467.460000000021</v>
+      </c>
+      <c r="L60">
+        <f>SUM(D$2:D60)</f>
+        <v>71444.42</v>
+      </c>
+      <c r="M60">
+        <f>SUM(E$2:E60)</f>
+        <v>71368.460000000006</v>
+      </c>
+      <c r="N60">
+        <f>SUM(F$2:F60)</f>
+        <v>71370.560000000012</v>
+      </c>
+      <c r="O60">
+        <f>SUM(G$2:G60)</f>
+        <v>71368.460000000036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <f>AVERAGE(MaxDeg!A60:AX60)</f>
+        <v>2.8</v>
+      </c>
+      <c r="C61">
+        <f>AVERAGE(MaxCol!A60:AX60)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D61">
+        <f>AVERAGE(MaxPre!A60:AX60)</f>
+        <v>2.92</v>
+      </c>
+      <c r="E61">
+        <f>AVERAGE(Rand!A60:AX60)</f>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f>AVERAGE(Walk!A60:AX60)</f>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f>AVERAGE(Walk2!A60:AX60)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I61">
+        <f>SUM(A$2:A61)</f>
+        <v>71477</v>
+      </c>
+      <c r="J61">
+        <f>SUM(B$2:B61)</f>
+        <v>71444.259999999951</v>
+      </c>
+      <c r="K61">
+        <f>SUM(C$2:C61)</f>
+        <v>71468.660000000018</v>
+      </c>
+      <c r="L61">
+        <f>SUM(D$2:D61)</f>
+        <v>71447.34</v>
+      </c>
+      <c r="M61">
+        <f>SUM(E$2:E61)</f>
+        <v>71369.460000000006</v>
+      </c>
+      <c r="N61">
+        <f>SUM(F$2:F61)</f>
+        <v>71371.560000000012</v>
+      </c>
+      <c r="O61">
+        <f>SUM(G$2:G61)</f>
+        <v>71369.500000000029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <f>AVERAGE(MaxDeg!A61:AX61)</f>
+        <v>2.86</v>
+      </c>
+      <c r="C62">
+        <f>AVERAGE(MaxCol!A61:AX61)</f>
+        <v>1.8</v>
+      </c>
+      <c r="D62">
+        <f>AVERAGE(MaxPre!A61:AX61)</f>
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <f>AVERAGE(Rand!A61:AX61)</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f>AVERAGE(Walk!A61:AX61)</f>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f>AVERAGE(Walk2!A61:AX61)</f>
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f>SUM(A$2:A62)</f>
+        <v>71479</v>
+      </c>
+      <c r="J62">
+        <f>SUM(B$2:B62)</f>
+        <v>71447.119999999952</v>
+      </c>
+      <c r="K62">
+        <f>SUM(C$2:C62)</f>
+        <v>71470.460000000021</v>
+      </c>
+      <c r="L62">
+        <f>SUM(D$2:D62)</f>
+        <v>71450.34</v>
+      </c>
+      <c r="M62">
+        <f>SUM(E$2:E62)</f>
+        <v>71370.460000000006</v>
+      </c>
+      <c r="N62">
+        <f>SUM(F$2:F62)</f>
+        <v>71372.560000000012</v>
+      </c>
+      <c r="O62">
+        <f>SUM(G$2:G62)</f>
+        <v>71370.500000000029</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <f>AVERAGE(MaxDeg!A62:AX62)</f>
+        <v>2.84</v>
+      </c>
+      <c r="C63">
+        <f>AVERAGE(MaxCol!A62:AX62)</f>
+        <v>1.96</v>
+      </c>
+      <c r="D63">
+        <f>AVERAGE(MaxPre!A62:AX62)</f>
+        <v>3.04</v>
+      </c>
+      <c r="E63">
+        <f>AVERAGE(Rand!A62:AX62)</f>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f>AVERAGE(Walk!A62:AX62)</f>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f>AVERAGE(Walk2!A62:AX62)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I63">
+        <f>SUM(A$2:A63)</f>
+        <v>71481</v>
+      </c>
+      <c r="J63">
+        <f>SUM(B$2:B63)</f>
+        <v>71449.959999999948</v>
+      </c>
+      <c r="K63">
+        <f>SUM(C$2:C63)</f>
+        <v>71472.420000000027</v>
+      </c>
+      <c r="L63">
+        <f>SUM(D$2:D63)</f>
+        <v>71453.37999999999</v>
+      </c>
+      <c r="M63">
+        <f>SUM(E$2:E63)</f>
+        <v>71371.460000000006</v>
+      </c>
+      <c r="N63">
+        <f>SUM(F$2:F63)</f>
+        <v>71373.560000000012</v>
+      </c>
+      <c r="O63">
+        <f>SUM(G$2:G63)</f>
+        <v>71371.520000000033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <f>AVERAGE(MaxDeg!A63:AX63)</f>
+        <v>1.46</v>
+      </c>
+      <c r="C64">
+        <f>AVERAGE(MaxCol!A63:AX63)</f>
+        <v>1.04</v>
+      </c>
+      <c r="D64">
+        <f>AVERAGE(MaxPre!A63:AX63)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E64">
+        <f>AVERAGE(Rand!A63:AX63)</f>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f>AVERAGE(Walk!A63:AX63)</f>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f>AVERAGE(Walk2!A63:AX63)</f>
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f>SUM(A$2:A64)</f>
+        <v>71483</v>
+      </c>
+      <c r="J64">
+        <f>SUM(B$2:B64)</f>
+        <v>71451.419999999955</v>
+      </c>
+      <c r="K64">
+        <f>SUM(C$2:C64)</f>
+        <v>71473.460000000021</v>
+      </c>
+      <c r="L64">
+        <f>SUM(D$2:D64)</f>
+        <v>71454.459999999992</v>
+      </c>
+      <c r="M64">
+        <f>SUM(E$2:E64)</f>
+        <v>71372.460000000006</v>
+      </c>
+      <c r="N64">
+        <f>SUM(F$2:F64)</f>
+        <v>71374.560000000012</v>
+      </c>
+      <c r="O64">
+        <f>SUM(G$2:G64)</f>
+        <v>71372.520000000033</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <f>AVERAGE(MaxDeg!A64:AX64)</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C65">
+        <f>AVERAGE(MaxCol!A64:AX64)</f>
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <f>AVERAGE(MaxPre!A64:AX64)</f>
+        <v>2.04</v>
+      </c>
+      <c r="E65">
+        <f>AVERAGE(Rand!A64:AX64)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F65">
+        <f>AVERAGE(Walk!A64:AX64)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G65">
+        <f>AVERAGE(Walk2!A64:AX64)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I65">
+        <f>SUM(A$2:A65)</f>
+        <v>71485</v>
+      </c>
+      <c r="J65">
+        <f>SUM(B$2:B65)</f>
+        <v>71453.599999999948</v>
+      </c>
+      <c r="K65">
+        <f>SUM(C$2:C65)</f>
+        <v>71475.460000000021</v>
+      </c>
+      <c r="L65">
+        <f>SUM(D$2:D65)</f>
+        <v>71456.499999999985</v>
+      </c>
+      <c r="M65">
+        <f>SUM(E$2:E65)</f>
+        <v>71373.48000000001</v>
+      </c>
+      <c r="N65">
+        <f>SUM(F$2:F65)</f>
+        <v>71375.580000000016</v>
+      </c>
+      <c r="O65">
+        <f>SUM(G$2:G65)</f>
+        <v>71373.540000000037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <f>AVERAGE(MaxDeg!A65:AX65)</f>
+        <v>3.02</v>
+      </c>
+      <c r="C66">
+        <f>AVERAGE(MaxCol!A65:AX65)</f>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <f>AVERAGE(MaxPre!A65:AX65)</f>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <f>AVERAGE(Rand!A65:AX65)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F66">
+        <f>AVERAGE(Walk!A65:AX65)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G66">
+        <f>AVERAGE(Walk2!A65:AX65)</f>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f>SUM(A$2:A66)</f>
+        <v>71487</v>
+      </c>
+      <c r="J66">
+        <f>SUM(B$2:B66)</f>
+        <v>71456.619999999952</v>
+      </c>
+      <c r="K66">
+        <f>SUM(C$2:C66)</f>
+        <v>71476.460000000021</v>
+      </c>
+      <c r="L66">
+        <f>SUM(D$2:D66)</f>
+        <v>71459.499999999985</v>
+      </c>
+      <c r="M66">
+        <f>SUM(E$2:E66)</f>
+        <v>71374.540000000008</v>
+      </c>
+      <c r="N66">
+        <f>SUM(F$2:F66)</f>
+        <v>71376.60000000002</v>
+      </c>
+      <c r="O66">
+        <f>SUM(G$2:G66)</f>
+        <v>71374.540000000037</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <f>AVERAGE(MaxDeg!A66:AX66)</f>
+        <v>3.74</v>
+      </c>
+      <c r="C67">
+        <f>AVERAGE(MaxCol!A66:AX66)</f>
+        <v>1.86</v>
+      </c>
+      <c r="D67">
+        <f>AVERAGE(MaxPre!A66:AX66)</f>
+        <v>3.88</v>
+      </c>
+      <c r="E67">
+        <f>AVERAGE(Rand!A66:AX66)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f>AVERAGE(Walk!A66:AX66)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G67">
+        <f>AVERAGE(Walk2!A66:AX66)</f>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f>SUM(A$2:A67)</f>
+        <v>71489</v>
+      </c>
+      <c r="J67">
+        <f>SUM(B$2:B67)</f>
+        <v>71460.359999999957</v>
+      </c>
+      <c r="K67">
+        <f>SUM(C$2:C67)</f>
+        <v>71478.320000000022</v>
+      </c>
+      <c r="L67">
+        <f>SUM(D$2:D67)</f>
+        <v>71463.37999999999</v>
+      </c>
+      <c r="M67">
+        <f>SUM(E$2:E67)</f>
+        <v>71375.540000000008</v>
+      </c>
+      <c r="N67">
+        <f>SUM(F$2:F67)</f>
+        <v>71377.620000000024</v>
+      </c>
+      <c r="O67">
+        <f>SUM(G$2:G67)</f>
+        <v>71375.540000000037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <f>AVERAGE(MaxDeg!A67:AX67)</f>
+        <v>2.82</v>
+      </c>
+      <c r="C68">
+        <f>AVERAGE(MaxCol!A67:AX67)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D68">
+        <f>AVERAGE(MaxPre!A67:AX67)</f>
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <f>AVERAGE(Rand!A67:AX67)</f>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f>AVERAGE(Walk!A67:AX67)</f>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f>AVERAGE(Walk2!A67:AX67)</f>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f>SUM(A$2:A68)</f>
+        <v>71491</v>
+      </c>
+      <c r="J68">
+        <f>SUM(B$2:B68)</f>
+        <v>71463.179999999964</v>
+      </c>
+      <c r="K68">
+        <f>SUM(C$2:C68)</f>
+        <v>71479.460000000021</v>
+      </c>
+      <c r="L68">
+        <f>SUM(D$2:D68)</f>
+        <v>71466.37999999999</v>
+      </c>
+      <c r="M68">
+        <f>SUM(E$2:E68)</f>
+        <v>71376.540000000008</v>
+      </c>
+      <c r="N68">
+        <f>SUM(F$2:F68)</f>
+        <v>71378.620000000024</v>
+      </c>
+      <c r="O68">
+        <f>SUM(G$2:G68)</f>
+        <v>71376.540000000037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <f>AVERAGE(MaxDeg!A68:AX68)</f>
+        <v>2.92</v>
+      </c>
+      <c r="C69">
+        <f>AVERAGE(MaxCol!A68:AX68)</f>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f>AVERAGE(MaxPre!A68:AX68)</f>
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <f>AVERAGE(Rand!A68:AX68)</f>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f>AVERAGE(Walk!A68:AX68)</f>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f>AVERAGE(Walk2!A68:AX68)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I69">
+        <f>SUM(A$2:A69)</f>
+        <v>71493</v>
+      </c>
+      <c r="J69">
+        <f>SUM(B$2:B69)</f>
+        <v>71466.099999999962</v>
+      </c>
+      <c r="K69">
+        <f>SUM(C$2:C69)</f>
+        <v>71481.460000000021</v>
+      </c>
+      <c r="L69">
+        <f>SUM(D$2:D69)</f>
+        <v>71469.37999999999</v>
+      </c>
+      <c r="M69">
+        <f>SUM(E$2:E69)</f>
+        <v>71377.540000000008</v>
+      </c>
+      <c r="N69">
+        <f>SUM(F$2:F69)</f>
+        <v>71379.620000000024</v>
+      </c>
+      <c r="O69">
+        <f>SUM(G$2:G69)</f>
+        <v>71377.560000000041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <f>AVERAGE(MaxDeg!A69:AX69)</f>
+        <v>2.84</v>
+      </c>
+      <c r="C70">
+        <f>AVERAGE(MaxCol!A69:AX69)</f>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f>AVERAGE(MaxPre!A69:AX69)</f>
+        <v>3.02</v>
+      </c>
+      <c r="E70">
+        <f>AVERAGE(Rand!A69:AX69)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F70">
+        <f>AVERAGE(Walk!A69:AX69)</f>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f>AVERAGE(Walk2!A69:AX69)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I70">
+        <f>SUM(A$2:A70)</f>
+        <v>71495</v>
+      </c>
+      <c r="J70">
+        <f>SUM(B$2:B70)</f>
+        <v>71468.939999999959</v>
+      </c>
+      <c r="K70">
+        <f>SUM(C$2:C70)</f>
+        <v>71482.460000000021</v>
+      </c>
+      <c r="L70">
+        <f>SUM(D$2:D70)</f>
+        <v>71472.399999999994</v>
+      </c>
+      <c r="M70">
+        <f>SUM(E$2:E70)</f>
+        <v>71378.560000000012</v>
+      </c>
+      <c r="N70">
+        <f>SUM(F$2:F70)</f>
+        <v>71380.620000000024</v>
+      </c>
+      <c r="O70">
+        <f>SUM(G$2:G70)</f>
+        <v>71378.580000000045</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <f>AVERAGE(MaxDeg!A70:AX70)</f>
+        <v>2.8</v>
+      </c>
+      <c r="C71">
+        <f>AVERAGE(MaxCol!A70:AX70)</f>
+        <v>1.24</v>
+      </c>
+      <c r="D71">
+        <f>AVERAGE(MaxPre!A70:AX70)</f>
+        <v>2.92</v>
+      </c>
+      <c r="E71">
+        <f>AVERAGE(Rand!A70:AX70)</f>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f>AVERAGE(Walk!A70:AX70)</f>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f>AVERAGE(Walk2!A70:AX70)</f>
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f>SUM(A$2:A71)</f>
+        <v>71497</v>
+      </c>
+      <c r="J71">
+        <f>SUM(B$2:B71)</f>
+        <v>71471.739999999962</v>
+      </c>
+      <c r="K71">
+        <f>SUM(C$2:C71)</f>
+        <v>71483.700000000026</v>
+      </c>
+      <c r="L71">
+        <f>SUM(D$2:D71)</f>
+        <v>71475.319999999992</v>
+      </c>
+      <c r="M71">
+        <f>SUM(E$2:E71)</f>
+        <v>71379.560000000012</v>
+      </c>
+      <c r="N71">
+        <f>SUM(F$2:F71)</f>
+        <v>71381.620000000024</v>
+      </c>
+      <c r="O71">
+        <f>SUM(G$2:G71)</f>
+        <v>71379.580000000045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <f>AVERAGE(MaxDeg!A71:AX71)</f>
+        <v>2.94</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(MaxCol!A71:AX71)</f>
+        <v>1.76</v>
+      </c>
+      <c r="D72">
+        <f>AVERAGE(MaxPre!A71:AX71)</f>
+        <v>2.96</v>
+      </c>
+      <c r="E72">
+        <f>AVERAGE(Rand!A71:AX71)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F72">
+        <f>AVERAGE(Walk!A71:AX71)</f>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f>AVERAGE(Walk2!A71:AX71)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I72">
+        <f>SUM(A$2:A72)</f>
+        <v>71499</v>
+      </c>
+      <c r="J72">
+        <f>SUM(B$2:B72)</f>
+        <v>71474.679999999964</v>
+      </c>
+      <c r="K72">
+        <f>SUM(C$2:C72)</f>
+        <v>71485.460000000021</v>
+      </c>
+      <c r="L72">
+        <f>SUM(D$2:D72)</f>
+        <v>71478.28</v>
+      </c>
+      <c r="M72">
+        <f>SUM(E$2:E72)</f>
+        <v>71380.600000000006</v>
+      </c>
+      <c r="N72">
+        <f>SUM(F$2:F72)</f>
+        <v>71382.620000000024</v>
+      </c>
+      <c r="O72">
+        <f>SUM(G$2:G72)</f>
+        <v>71380.620000000039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <f>AVERAGE(MaxDeg!A72:AX72)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C73">
+        <f>AVERAGE(MaxCol!A72:AX72)</f>
+        <v>1.98</v>
+      </c>
+      <c r="D73">
+        <f>AVERAGE(MaxPre!A72:AX72)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E73">
+        <f>AVERAGE(Rand!A72:AX72)</f>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f>AVERAGE(Walk!A72:AX72)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G73">
+        <f>AVERAGE(Walk2!A72:AX72)</f>
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f>SUM(A$2:A73)</f>
+        <v>71501</v>
+      </c>
+      <c r="J73">
+        <f>SUM(B$2:B73)</f>
+        <v>71475.799999999959</v>
+      </c>
+      <c r="K73">
+        <f>SUM(C$2:C73)</f>
+        <v>71487.440000000017</v>
+      </c>
+      <c r="L73">
+        <f>SUM(D$2:D73)</f>
+        <v>71479.360000000001</v>
+      </c>
+      <c r="M73">
+        <f>SUM(E$2:E73)</f>
+        <v>71381.600000000006</v>
+      </c>
+      <c r="N73">
+        <f>SUM(F$2:F73)</f>
+        <v>71383.660000000018</v>
+      </c>
+      <c r="O73">
+        <f>SUM(G$2:G73)</f>
+        <v>71381.620000000039</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <f>AVERAGE(MaxDeg!A73:AX73)</f>
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f>AVERAGE(MaxCol!A73:AX73)</f>
+        <v>1.02</v>
+      </c>
+      <c r="D74">
+        <f>AVERAGE(MaxPre!A73:AX73)</f>
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <f>AVERAGE(Rand!A73:AX73)</f>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f>AVERAGE(Walk!A73:AX73)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G74">
+        <f>AVERAGE(Walk2!A73:AX73)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I74">
+        <f>SUM(A$2:A74)</f>
+        <v>71503</v>
+      </c>
+      <c r="J74">
+        <f>SUM(B$2:B74)</f>
+        <v>71476.799999999959</v>
+      </c>
+      <c r="K74">
+        <f>SUM(C$2:C74)</f>
+        <v>71488.460000000021</v>
+      </c>
+      <c r="L74">
+        <f>SUM(D$2:D74)</f>
+        <v>71480.36</v>
+      </c>
+      <c r="M74">
+        <f>SUM(E$2:E74)</f>
+        <v>71382.600000000006</v>
+      </c>
+      <c r="N74">
+        <f>SUM(F$2:F74)</f>
+        <v>71384.680000000022</v>
+      </c>
+      <c r="O74">
+        <f>SUM(G$2:G74)</f>
+        <v>71382.640000000043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <f>AVERAGE(MaxDeg!A74:AX74)</f>
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <f>AVERAGE(MaxCol!A74:AX74)</f>
+        <v>1.92</v>
+      </c>
+      <c r="D75">
+        <f>AVERAGE(MaxPre!A74:AX74)</f>
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <f>AVERAGE(Rand!A74:AX74)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F75">
+        <f>AVERAGE(Walk!A74:AX74)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G75">
+        <f>AVERAGE(Walk2!A74:AX74)</f>
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f>SUM(A$2:A75)</f>
+        <v>71505</v>
+      </c>
+      <c r="J75">
+        <f>SUM(B$2:B75)</f>
+        <v>71477.799999999959</v>
+      </c>
+      <c r="K75">
+        <f>SUM(C$2:C75)</f>
+        <v>71490.380000000019</v>
+      </c>
+      <c r="L75">
+        <f>SUM(D$2:D75)</f>
+        <v>71481.36</v>
+      </c>
+      <c r="M75">
+        <f>SUM(E$2:E75)</f>
+        <v>71383.62000000001</v>
+      </c>
+      <c r="N75">
+        <f>SUM(F$2:F75)</f>
+        <v>71385.720000000016</v>
+      </c>
+      <c r="O75">
+        <f>SUM(G$2:G75)</f>
+        <v>71383.640000000043</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <f>AVERAGE(MaxDeg!A75:AX75)</f>
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <f>AVERAGE(MaxCol!A75:AX75)</f>
+        <v>1.08</v>
+      </c>
+      <c r="D76">
+        <f>AVERAGE(MaxPre!A75:AX75)</f>
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <f>AVERAGE(Rand!A75:AX75)</f>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <f>AVERAGE(Walk!A75:AX75)</f>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f>AVERAGE(Walk2!A75:AX75)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I76">
+        <f>SUM(A$2:A76)</f>
+        <v>71507</v>
+      </c>
+      <c r="J76">
+        <f>SUM(B$2:B76)</f>
+        <v>71478.799999999959</v>
+      </c>
+      <c r="K76">
+        <f>SUM(C$2:C76)</f>
+        <v>71491.460000000021</v>
+      </c>
+      <c r="L76">
+        <f>SUM(D$2:D76)</f>
+        <v>71482.36</v>
+      </c>
+      <c r="M76">
+        <f>SUM(E$2:E76)</f>
+        <v>71384.62000000001</v>
+      </c>
+      <c r="N76">
+        <f>SUM(F$2:F76)</f>
+        <v>71386.720000000016</v>
+      </c>
+      <c r="O76">
+        <f>SUM(G$2:G76)</f>
+        <v>71384.660000000047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <f>AVERAGE(MaxDeg!A76:AX76)</f>
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <f>AVERAGE(MaxCol!A76:AX76)</f>
+        <v>1.94</v>
+      </c>
+      <c r="D77">
+        <f>AVERAGE(MaxPre!A76:AX76)</f>
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <f>AVERAGE(Rand!A76:AX76)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F77">
+        <f>AVERAGE(Walk!A76:AX76)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G77">
+        <f>AVERAGE(Walk2!A76:AX76)</f>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f>SUM(A$2:A77)</f>
+        <v>71509</v>
+      </c>
+      <c r="J77">
+        <f>SUM(B$2:B77)</f>
+        <v>71479.799999999959</v>
+      </c>
+      <c r="K77">
+        <f>SUM(C$2:C77)</f>
+        <v>71493.400000000023</v>
+      </c>
+      <c r="L77">
+        <f>SUM(D$2:D77)</f>
+        <v>71483.360000000001</v>
+      </c>
+      <c r="M77">
+        <f>SUM(E$2:E77)</f>
+        <v>71385.640000000014</v>
+      </c>
+      <c r="N77">
+        <f>SUM(F$2:F77)</f>
+        <v>71387.74000000002</v>
+      </c>
+      <c r="O77">
+        <f>SUM(G$2:G77)</f>
+        <v>71385.660000000047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <f>AVERAGE(MaxDeg!A77:AX77)</f>
+        <v>1.94</v>
+      </c>
+      <c r="C78">
+        <f>AVERAGE(MaxCol!A77:AX77)</f>
+        <v>1.06</v>
+      </c>
+      <c r="D78">
+        <f>AVERAGE(MaxPre!A77:AX77)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E78">
+        <f>AVERAGE(Rand!A77:AX77)</f>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f>AVERAGE(Walk!A77:AX77)</f>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f>AVERAGE(Walk2!A77:AX77)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I78">
+        <f>SUM(A$2:A78)</f>
+        <v>71511</v>
+      </c>
+      <c r="J78">
+        <f>SUM(B$2:B78)</f>
+        <v>71481.739999999962</v>
+      </c>
+      <c r="K78">
+        <f>SUM(C$2:C78)</f>
+        <v>71494.460000000021</v>
+      </c>
+      <c r="L78">
+        <f>SUM(D$2:D78)</f>
+        <v>71485.34</v>
+      </c>
+      <c r="M78">
+        <f>SUM(E$2:E78)</f>
+        <v>71386.640000000014</v>
+      </c>
+      <c r="N78">
+        <f>SUM(F$2:F78)</f>
+        <v>71388.74000000002</v>
+      </c>
+      <c r="O78">
+        <f>SUM(G$2:G78)</f>
+        <v>71386.680000000051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f>AVERAGE(MaxDeg!A78:AX78)</f>
+        <v>1.22</v>
+      </c>
+      <c r="C79">
+        <f>AVERAGE(MaxCol!A78:AX78)</f>
+        <v>1.8</v>
+      </c>
+      <c r="D79">
+        <f>AVERAGE(MaxPre!A78:AX78)</f>
+        <v>1.24</v>
+      </c>
+      <c r="E79">
+        <f>AVERAGE(Rand!A78:AX78)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F79">
+        <f>AVERAGE(Walk!A78:AX78)</f>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f>AVERAGE(Walk2!A78:AX78)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I79">
+        <f>SUM(A$2:A79)</f>
+        <v>71513</v>
+      </c>
+      <c r="J79">
+        <f>SUM(B$2:B79)</f>
+        <v>71482.959999999963</v>
+      </c>
+      <c r="K79">
+        <f>SUM(C$2:C79)</f>
+        <v>71496.260000000024</v>
+      </c>
+      <c r="L79">
+        <f>SUM(D$2:D79)</f>
+        <v>71486.58</v>
+      </c>
+      <c r="M79">
+        <f>SUM(E$2:E79)</f>
+        <v>71387.660000000018</v>
+      </c>
+      <c r="N79">
+        <f>SUM(F$2:F79)</f>
+        <v>71389.74000000002</v>
+      </c>
+      <c r="O79">
+        <f>SUM(G$2:G79)</f>
+        <v>71387.700000000055</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <f>AVERAGE(MaxDeg!A79:AX79)</f>
+        <v>1.88</v>
+      </c>
+      <c r="C80">
+        <f>AVERAGE(MaxCol!A79:AX79)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D80">
+        <f>AVERAGE(MaxPre!A79:AX79)</f>
+        <v>1.76</v>
+      </c>
+      <c r="E80">
+        <f>AVERAGE(Rand!A79:AX79)</f>
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <f>AVERAGE(Walk!A79:AX79)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G80">
+        <f>AVERAGE(Walk2!A79:AX79)</f>
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f>SUM(A$2:A80)</f>
+        <v>71515</v>
+      </c>
+      <c r="J80">
+        <f>SUM(B$2:B80)</f>
+        <v>71484.839999999967</v>
+      </c>
+      <c r="K80">
+        <f>SUM(C$2:C80)</f>
+        <v>71497.460000000021</v>
+      </c>
+      <c r="L80">
+        <f>SUM(D$2:D80)</f>
+        <v>71488.34</v>
+      </c>
+      <c r="M80">
+        <f>SUM(E$2:E80)</f>
+        <v>71388.660000000018</v>
+      </c>
+      <c r="N80">
+        <f>SUM(F$2:F80)</f>
+        <v>71390.780000000013</v>
+      </c>
+      <c r="O80">
+        <f>SUM(G$2:G80)</f>
+        <v>71388.700000000055</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <f>AVERAGE(MaxDeg!A80:AX80)</f>
+        <v>1.86</v>
+      </c>
+      <c r="C81">
+        <f>AVERAGE(MaxCol!A80:AX80)</f>
+        <v>1.96</v>
+      </c>
+      <c r="D81">
+        <f>AVERAGE(MaxPre!A80:AX80)</f>
+        <v>1.84</v>
+      </c>
+      <c r="E81">
+        <f>AVERAGE(Rand!A80:AX80)</f>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f>AVERAGE(Walk!A80:AX80)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G81">
+        <f>AVERAGE(Walk2!A80:AX80)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I81">
+        <f>SUM(A$2:A81)</f>
+        <v>71517</v>
+      </c>
+      <c r="J81">
+        <f>SUM(B$2:B81)</f>
+        <v>71486.699999999968</v>
+      </c>
+      <c r="K81">
+        <f>SUM(C$2:C81)</f>
+        <v>71499.420000000027</v>
+      </c>
+      <c r="L81">
+        <f>SUM(D$2:D81)</f>
+        <v>71490.179999999993</v>
+      </c>
+      <c r="M81">
+        <f>SUM(E$2:E81)</f>
+        <v>71389.660000000018</v>
+      </c>
+      <c r="N81">
+        <f>SUM(F$2:F81)</f>
+        <v>71391.800000000017</v>
+      </c>
+      <c r="O81">
+        <f>SUM(G$2:G81)</f>
+        <v>71389.720000000059</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <f>AVERAGE(MaxDeg!A81:AX81)</f>
+        <v>1.24</v>
+      </c>
+      <c r="C82">
+        <f>AVERAGE(MaxCol!A81:AX81)</f>
+        <v>1.04</v>
+      </c>
+      <c r="D82">
+        <f>AVERAGE(MaxPre!A81:AX81)</f>
+        <v>1.18</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(Rand!A81:AX81)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F82">
+        <f>AVERAGE(Walk!A81:AX81)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G82">
+        <f>AVERAGE(Walk2!A81:AX81)</f>
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f>SUM(A$2:A82)</f>
+        <v>71519</v>
+      </c>
+      <c r="J82">
+        <f>SUM(B$2:B82)</f>
+        <v>71487.939999999973</v>
+      </c>
+      <c r="K82">
+        <f>SUM(C$2:C82)</f>
+        <v>71500.460000000021</v>
+      </c>
+      <c r="L82">
+        <f>SUM(D$2:D82)</f>
+        <v>71491.359999999986</v>
+      </c>
+      <c r="M82">
+        <f>SUM(E$2:E82)</f>
+        <v>71390.700000000012</v>
+      </c>
+      <c r="N82">
+        <f>SUM(F$2:F82)</f>
+        <v>71392.820000000022</v>
+      </c>
+      <c r="O82">
+        <f>SUM(G$2:G82)</f>
+        <v>71390.720000000059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f>AVERAGE(MaxDeg!A82:AX82)</f>
+        <v>1.9</v>
+      </c>
+      <c r="C83">
+        <f>AVERAGE(MaxCol!A82:AX82)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D83">
+        <f>AVERAGE(MaxPre!A82:AX82)</f>
+        <v>1.88</v>
+      </c>
+      <c r="E83">
+        <f>AVERAGE(Rand!A82:AX82)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F83">
+        <f>AVERAGE(Walk!A82:AX82)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G83">
+        <f>AVERAGE(Walk2!A82:AX82)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I83">
+        <f>SUM(A$2:A83)</f>
+        <v>71521</v>
+      </c>
+      <c r="J83">
+        <f>SUM(B$2:B83)</f>
+        <v>71489.839999999967</v>
+      </c>
+      <c r="K83">
+        <f>SUM(C$2:C83)</f>
+        <v>71501.660000000018</v>
+      </c>
+      <c r="L83">
+        <f>SUM(D$2:D83)</f>
+        <v>71493.239999999991</v>
+      </c>
+      <c r="M83">
+        <f>SUM(E$2:E83)</f>
+        <v>71391.740000000005</v>
+      </c>
+      <c r="N83">
+        <f>SUM(F$2:F83)</f>
+        <v>71393.840000000026</v>
+      </c>
+      <c r="O83">
+        <f>SUM(G$2:G83)</f>
+        <v>71391.760000000053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <f>AVERAGE(MaxDeg!A83:AX83)</f>
+        <v>1.96</v>
+      </c>
+      <c r="C84">
+        <f>AVERAGE(MaxCol!A83:AX83)</f>
+        <v>1.8</v>
+      </c>
+      <c r="D84">
+        <f>AVERAGE(MaxPre!A83:AX83)</f>
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <f>AVERAGE(Rand!A83:AX83)</f>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f>AVERAGE(Walk!A83:AX83)</f>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f>AVERAGE(Walk2!A83:AX83)</f>
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <f>SUM(A$2:A84)</f>
+        <v>71523</v>
+      </c>
+      <c r="J84">
+        <f>SUM(B$2:B84)</f>
+        <v>71491.799999999974</v>
+      </c>
+      <c r="K84">
+        <f>SUM(C$2:C84)</f>
+        <v>71503.460000000021</v>
+      </c>
+      <c r="L84">
+        <f>SUM(D$2:D84)</f>
+        <v>71495.239999999991</v>
+      </c>
+      <c r="M84">
+        <f>SUM(E$2:E84)</f>
+        <v>71392.740000000005</v>
+      </c>
+      <c r="N84">
+        <f>SUM(F$2:F84)</f>
+        <v>71394.840000000026</v>
+      </c>
+      <c r="O84">
+        <f>SUM(G$2:G84)</f>
+        <v>71392.760000000053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <f>AVERAGE(MaxDeg!A84:AX84)</f>
+        <v>1.22</v>
+      </c>
+      <c r="C85">
+        <f>AVERAGE(MaxCol!A84:AX84)</f>
+        <v>1.92</v>
+      </c>
+      <c r="D85">
+        <f>AVERAGE(MaxPre!A84:AX84)</f>
+        <v>1.2</v>
+      </c>
+      <c r="E85">
+        <f>AVERAGE(Rand!A84:AX84)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F85">
+        <f>AVERAGE(Walk!A84:AX84)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G85">
+        <f>AVERAGE(Walk2!A84:AX84)</f>
+        <v>1.06</v>
+      </c>
+      <c r="I85">
+        <f>SUM(A$2:A85)</f>
+        <v>71525</v>
+      </c>
+      <c r="J85">
+        <f>SUM(B$2:B85)</f>
+        <v>71493.019999999975</v>
+      </c>
+      <c r="K85">
+        <f>SUM(C$2:C85)</f>
+        <v>71505.380000000019</v>
+      </c>
+      <c r="L85">
+        <f>SUM(D$2:D85)</f>
+        <v>71496.439999999988</v>
+      </c>
+      <c r="M85">
+        <f>SUM(E$2:E85)</f>
+        <v>71393.760000000009</v>
+      </c>
+      <c r="N85">
+        <f>SUM(F$2:F85)</f>
+        <v>71395.880000000019</v>
+      </c>
+      <c r="O85">
+        <f>SUM(G$2:G85)</f>
+        <v>71393.820000000051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <f>AVERAGE(MaxDeg!A85:AX85)</f>
+        <v>1.98</v>
+      </c>
+      <c r="C86">
+        <f>AVERAGE(MaxCol!A85:AX85)</f>
+        <v>1.08</v>
+      </c>
+      <c r="D86">
+        <f>AVERAGE(MaxPre!A85:AX85)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E86">
+        <f>AVERAGE(Rand!A85:AX85)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F86">
+        <f>AVERAGE(Walk!A85:AX85)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G86">
+        <f>AVERAGE(Walk2!A85:AX85)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I86">
+        <f>SUM(A$2:A86)</f>
+        <v>71527</v>
+      </c>
+      <c r="J86">
+        <f>SUM(B$2:B86)</f>
+        <v>71494.999999999971</v>
+      </c>
+      <c r="K86">
+        <f>SUM(C$2:C86)</f>
+        <v>71506.460000000021</v>
+      </c>
+      <c r="L86">
+        <f>SUM(D$2:D86)</f>
+        <v>71498.419999999984</v>
+      </c>
+      <c r="M86">
+        <f>SUM(E$2:E86)</f>
+        <v>71394.8</v>
+      </c>
+      <c r="N86">
+        <f>SUM(F$2:F86)</f>
+        <v>71396.920000000013</v>
+      </c>
+      <c r="O86">
+        <f>SUM(G$2:G86)</f>
+        <v>71394.840000000055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <f>AVERAGE(MaxDeg!A86:AX86)</f>
+        <v>1.94</v>
+      </c>
+      <c r="C87">
+        <f>AVERAGE(MaxCol!A86:AX86)</f>
+        <v>1.8</v>
+      </c>
+      <c r="D87">
+        <f>AVERAGE(MaxPre!A86:AX86)</f>
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <f>AVERAGE(Rand!A86:AX86)</f>
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <f>AVERAGE(Walk!A86:AX86)</f>
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <f>AVERAGE(Walk2!A86:AX86)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I87">
+        <f>SUM(A$2:A87)</f>
+        <v>71529</v>
+      </c>
+      <c r="J87">
+        <f>SUM(B$2:B87)</f>
+        <v>71496.939999999973</v>
+      </c>
+      <c r="K87">
+        <f>SUM(C$2:C87)</f>
+        <v>71508.260000000024</v>
+      </c>
+      <c r="L87">
+        <f>SUM(D$2:D87)</f>
+        <v>71500.419999999984</v>
+      </c>
+      <c r="M87">
+        <f>SUM(E$2:E87)</f>
+        <v>71395.8</v>
+      </c>
+      <c r="N87">
+        <f>SUM(F$2:F87)</f>
+        <v>71397.920000000013</v>
+      </c>
+      <c r="O87">
+        <f>SUM(G$2:G87)</f>
+        <v>71395.880000000048</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <f>AVERAGE(MaxDeg!A87:AX87)</f>
+        <v>1.98</v>
+      </c>
+      <c r="C88">
+        <f>AVERAGE(MaxCol!A87:AX87)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D88">
+        <f>AVERAGE(MaxPre!A87:AX87)</f>
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <f>AVERAGE(Rand!A87:AX87)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F88">
+        <f>AVERAGE(Walk!A87:AX87)</f>
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <f>AVERAGE(Walk2!A87:AX87)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I88">
+        <f>SUM(A$2:A88)</f>
+        <v>71531</v>
+      </c>
+      <c r="J88">
+        <f>SUM(B$2:B88)</f>
+        <v>71498.919999999969</v>
+      </c>
+      <c r="K88">
+        <f>SUM(C$2:C88)</f>
+        <v>71509.460000000021</v>
+      </c>
+      <c r="L88">
+        <f>SUM(D$2:D88)</f>
+        <v>71502.419999999984</v>
+      </c>
+      <c r="M88">
+        <f>SUM(E$2:E88)</f>
+        <v>71396.86</v>
+      </c>
+      <c r="N88">
+        <f>SUM(F$2:F88)</f>
+        <v>71398.920000000013</v>
+      </c>
+      <c r="O88">
+        <f>SUM(G$2:G88)</f>
+        <v>71396.920000000042</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <f>AVERAGE(MaxDeg!A88:AX88)</f>
+        <v>1.96</v>
+      </c>
+      <c r="C89">
+        <f>AVERAGE(MaxCol!A88:AX88)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D89">
+        <f>AVERAGE(MaxPre!A88:AX88)</f>
+        <v>1.94</v>
+      </c>
+      <c r="E89">
+        <f>AVERAGE(Rand!A88:AX88)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F89">
+        <f>AVERAGE(Walk!A88:AX88)</f>
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <f>AVERAGE(Walk2!A88:AX88)</f>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f>SUM(A$2:A89)</f>
+        <v>71533</v>
+      </c>
+      <c r="J89">
+        <f>SUM(B$2:B89)</f>
+        <v>71500.879999999976</v>
+      </c>
+      <c r="K89">
+        <f>SUM(C$2:C89)</f>
+        <v>71510.580000000016</v>
+      </c>
+      <c r="L89">
+        <f>SUM(D$2:D89)</f>
+        <v>71504.359999999986</v>
+      </c>
+      <c r="M89">
+        <f>SUM(E$2:E89)</f>
+        <v>71397.919999999998</v>
+      </c>
+      <c r="N89">
+        <f>SUM(F$2:F89)</f>
+        <v>71399.920000000013</v>
+      </c>
+      <c r="O89">
+        <f>SUM(G$2:G89)</f>
+        <v>71397.920000000042</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <f>AVERAGE(MaxDeg!A89:AX89)</f>
+        <v>1.94</v>
+      </c>
+      <c r="C90">
+        <f>AVERAGE(MaxCol!A89:AX89)</f>
+        <v>1.88</v>
+      </c>
+      <c r="D90">
+        <f>AVERAGE(MaxPre!A89:AX89)</f>
+        <v>1.96</v>
+      </c>
+      <c r="E90">
+        <f>AVERAGE(Rand!A89:AX89)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F90">
+        <f>AVERAGE(Walk!A89:AX89)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G90">
+        <f>AVERAGE(Walk2!A89:AX89)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I90">
+        <f>SUM(A$2:A90)</f>
+        <v>71535</v>
+      </c>
+      <c r="J90">
+        <f>SUM(B$2:B90)</f>
+        <v>71502.819999999978</v>
+      </c>
+      <c r="K90">
+        <f>SUM(C$2:C90)</f>
+        <v>71512.460000000021</v>
+      </c>
+      <c r="L90">
+        <f>SUM(D$2:D90)</f>
+        <v>71506.319999999992</v>
+      </c>
+      <c r="M90">
+        <f>SUM(E$2:E90)</f>
+        <v>71398.94</v>
+      </c>
+      <c r="N90">
+        <f>SUM(F$2:F90)</f>
+        <v>71400.960000000006</v>
+      </c>
+      <c r="O90">
+        <f>SUM(G$2:G90)</f>
+        <v>71398.960000000036</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f>AVERAGE(MaxDeg!A90:AX90)</f>
+        <v>1.98</v>
+      </c>
+      <c r="C91">
+        <f>AVERAGE(MaxCol!A90:AX90)</f>
+        <v>1.06</v>
+      </c>
+      <c r="D91">
+        <f>AVERAGE(MaxPre!A90:AX90)</f>
+        <v>1.96</v>
+      </c>
+      <c r="E91">
+        <f>AVERAGE(Rand!A90:AX90)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F91">
+        <f>AVERAGE(Walk!A90:AX90)</f>
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <f>AVERAGE(Walk2!A90:AX90)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I91">
+        <f>SUM(A$2:A91)</f>
+        <v>71537</v>
+      </c>
+      <c r="J91">
+        <f>SUM(B$2:B91)</f>
+        <v>71504.799999999974</v>
+      </c>
+      <c r="K91">
+        <f>SUM(C$2:C91)</f>
+        <v>71513.520000000019</v>
+      </c>
+      <c r="L91">
+        <f>SUM(D$2:D91)</f>
+        <v>71508.28</v>
+      </c>
+      <c r="M91">
+        <f>SUM(E$2:E91)</f>
+        <v>71400</v>
+      </c>
+      <c r="N91">
+        <f>SUM(F$2:F91)</f>
+        <v>71401.960000000006</v>
+      </c>
+      <c r="O91">
+        <f>SUM(G$2:G91)</f>
+        <v>71399.98000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <f>AVERAGE(MaxDeg!A91:AX91)</f>
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <f>AVERAGE(MaxCol!A91:AX91)</f>
+        <v>1.94</v>
+      </c>
+      <c r="D92">
+        <f>AVERAGE(MaxPre!A91:AX91)</f>
+        <v>1.92</v>
+      </c>
+      <c r="E92">
+        <f>AVERAGE(Rand!A91:AX91)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F92">
+        <f>AVERAGE(Walk!A91:AX91)</f>
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <f>AVERAGE(Walk2!A91:AX91)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I92">
+        <f>SUM(A$2:A92)</f>
+        <v>71539</v>
+      </c>
+      <c r="J92">
+        <f>SUM(B$2:B92)</f>
+        <v>71506.799999999974</v>
+      </c>
+      <c r="K92">
+        <f>SUM(C$2:C92)</f>
+        <v>71515.460000000021</v>
+      </c>
+      <c r="L92">
+        <f>SUM(D$2:D92)</f>
+        <v>71510.2</v>
+      </c>
+      <c r="M92">
+        <f>SUM(E$2:E92)</f>
+        <v>71401.02</v>
+      </c>
+      <c r="N92">
+        <f>SUM(F$2:F92)</f>
+        <v>71402.960000000006</v>
+      </c>
+      <c r="O92">
+        <f>SUM(G$2:G92)</f>
+        <v>71401.000000000044</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <f>AVERAGE(MaxDeg!A92:AX92)</f>
+        <v>1.92</v>
+      </c>
+      <c r="C93">
+        <f>AVERAGE(MaxCol!A92:AX92)</f>
+        <v>1.24</v>
+      </c>
+      <c r="D93">
+        <f>AVERAGE(MaxPre!A92:AX92)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E93">
+        <f>AVERAGE(Rand!A92:AX92)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F93">
+        <f>AVERAGE(Walk!A92:AX92)</f>
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <f>AVERAGE(Walk2!A92:AX92)</f>
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f>SUM(A$2:A93)</f>
+        <v>71541</v>
+      </c>
+      <c r="J93">
+        <f>SUM(B$2:B93)</f>
+        <v>71508.719999999972</v>
+      </c>
+      <c r="K93">
+        <f>SUM(C$2:C93)</f>
+        <v>71516.700000000026</v>
+      </c>
+      <c r="L93">
+        <f>SUM(D$2:D93)</f>
+        <v>71512.179999999993</v>
+      </c>
+      <c r="M93">
+        <f>SUM(E$2:E93)</f>
+        <v>71402.040000000008</v>
+      </c>
+      <c r="N93">
+        <f>SUM(F$2:F93)</f>
+        <v>71403.960000000006</v>
+      </c>
+      <c r="O93">
+        <f>SUM(G$2:G93)</f>
+        <v>71402.000000000044</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <f>AVERAGE(MaxDeg!A93:AX93)</f>
+        <v>1.2</v>
+      </c>
+      <c r="C94">
+        <f>AVERAGE(MaxCol!A93:AX93)</f>
+        <v>1.76</v>
+      </c>
+      <c r="D94">
+        <f>AVERAGE(MaxPre!A93:AX93)</f>
+        <v>1.22</v>
+      </c>
+      <c r="E94">
+        <f>AVERAGE(Rand!A93:AX93)</f>
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <f>AVERAGE(Walk!A93:AX93)</f>
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f>AVERAGE(Walk2!A93:AX93)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I94">
+        <f>SUM(A$2:A94)</f>
+        <v>71543</v>
+      </c>
+      <c r="J94">
+        <f>SUM(B$2:B94)</f>
+        <v>71509.919999999969</v>
+      </c>
+      <c r="K94">
+        <f>SUM(C$2:C94)</f>
+        <v>71518.460000000021</v>
+      </c>
+      <c r="L94">
+        <f>SUM(D$2:D94)</f>
+        <v>71513.399999999994</v>
+      </c>
+      <c r="M94">
+        <f>SUM(E$2:E94)</f>
+        <v>71403.040000000008</v>
+      </c>
+      <c r="N94">
+        <f>SUM(F$2:F94)</f>
+        <v>71404.960000000006</v>
+      </c>
+      <c r="O94">
+        <f>SUM(G$2:G94)</f>
+        <v>71403.020000000048</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <f>AVERAGE(MaxDeg!A94:AX94)</f>
+        <v>1.94</v>
+      </c>
+      <c r="C95">
+        <f>AVERAGE(MaxCol!A94:AX94)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D95">
+        <f>AVERAGE(MaxPre!A94:AX94)</f>
+        <v>1.96</v>
+      </c>
+      <c r="E95">
+        <f>AVERAGE(Rand!A94:AX94)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F95">
+        <f>AVERAGE(Walk!A94:AX94)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G95">
+        <f>AVERAGE(Walk2!A94:AX94)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I95">
+        <f>SUM(A$2:A95)</f>
+        <v>71545</v>
+      </c>
+      <c r="J95">
+        <f>SUM(B$2:B95)</f>
+        <v>71511.859999999971</v>
+      </c>
+      <c r="K95">
+        <f>SUM(C$2:C95)</f>
+        <v>71519.560000000027</v>
+      </c>
+      <c r="L95">
+        <f>SUM(D$2:D95)</f>
+        <v>71515.360000000001</v>
+      </c>
+      <c r="M95">
+        <f>SUM(E$2:E95)</f>
+        <v>71404.060000000012</v>
+      </c>
+      <c r="N95">
+        <f>SUM(F$2:F95)</f>
+        <v>71406</v>
+      </c>
+      <c r="O95">
+        <f>SUM(G$2:G95)</f>
+        <v>71404.040000000052</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <f>AVERAGE(MaxDeg!A95:AX95)</f>
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <f>AVERAGE(MaxCol!A95:AX95)</f>
+        <v>1.9</v>
+      </c>
+      <c r="D96">
+        <f>AVERAGE(MaxPre!A95:AX95)</f>
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <f>AVERAGE(Rand!A95:AX95)</f>
+        <v>1.08</v>
+      </c>
+      <c r="F96">
+        <f>AVERAGE(Walk!A95:AX95)</f>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f>AVERAGE(Walk2!A95:AX95)</f>
+        <v>1.04</v>
+      </c>
+      <c r="I96">
+        <f>SUM(A$2:A96)</f>
+        <v>71547</v>
+      </c>
+      <c r="J96">
+        <f>SUM(B$2:B96)</f>
+        <v>71513.859999999971</v>
+      </c>
+      <c r="K96">
+        <f>SUM(C$2:C96)</f>
+        <v>71521.460000000021</v>
+      </c>
+      <c r="L96">
+        <f>SUM(D$2:D96)</f>
+        <v>71517.36</v>
+      </c>
+      <c r="M96">
+        <f>SUM(E$2:E96)</f>
+        <v>71405.140000000014</v>
+      </c>
+      <c r="N96">
+        <f>SUM(F$2:F96)</f>
+        <v>71407</v>
+      </c>
+      <c r="O96">
+        <f>SUM(G$2:G96)</f>
+        <v>71405.080000000045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <f>AVERAGE(MaxDeg!A96:AX96)</f>
+        <v>1.94</v>
+      </c>
+      <c r="C97">
+        <f>AVERAGE(MaxCol!A96:AX96)</f>
+        <v>1.26</v>
+      </c>
+      <c r="D97">
+        <f>AVERAGE(MaxPre!A96:AX96)</f>
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <f>AVERAGE(Rand!A96:AX96)</f>
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <f>AVERAGE(Walk!A96:AX96)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G97">
+        <f>AVERAGE(Walk2!A96:AX96)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I97">
+        <f>SUM(A$2:A97)</f>
+        <v>71549</v>
+      </c>
+      <c r="J97">
+        <f>SUM(B$2:B97)</f>
+        <v>71515.799999999974</v>
+      </c>
+      <c r="K97">
+        <f>SUM(C$2:C97)</f>
+        <v>71522.720000000016</v>
+      </c>
+      <c r="L97">
+        <f>SUM(D$2:D97)</f>
+        <v>71519.360000000001</v>
+      </c>
+      <c r="M97">
+        <f>SUM(E$2:E97)</f>
+        <v>71406.140000000014</v>
+      </c>
+      <c r="N97">
+        <f>SUM(F$2:F97)</f>
+        <v>71408.02</v>
+      </c>
+      <c r="O97">
+        <f>SUM(G$2:G97)</f>
+        <v>71406.100000000049</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <f>AVERAGE(MaxDeg!A97:AX97)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C98">
+        <f>AVERAGE(MaxCol!A97:AX97)</f>
+        <v>1.74</v>
+      </c>
+      <c r="D98">
+        <f>AVERAGE(MaxPre!A97:AX97)</f>
+        <v>1.04</v>
+      </c>
+      <c r="E98">
+        <f>AVERAGE(Rand!A97:AX97)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F98">
+        <f>AVERAGE(Walk!A97:AX97)</f>
+        <v>1.22</v>
+      </c>
+      <c r="G98">
+        <f>AVERAGE(Walk2!A97:AX97)</f>
+        <v>1.22</v>
+      </c>
+      <c r="I98">
+        <f>SUM(A$2:A98)</f>
+        <v>71551</v>
+      </c>
+      <c r="J98">
+        <f>SUM(B$2:B98)</f>
+        <v>71516.89999999998</v>
+      </c>
+      <c r="K98">
+        <f>SUM(C$2:C98)</f>
+        <v>71524.460000000021</v>
+      </c>
+      <c r="L98">
+        <f>SUM(D$2:D98)</f>
+        <v>71520.399999999994</v>
+      </c>
+      <c r="M98">
+        <f>SUM(E$2:E98)</f>
+        <v>71407.340000000011</v>
+      </c>
+      <c r="N98">
+        <f>SUM(F$2:F98)</f>
+        <v>71409.240000000005</v>
+      </c>
+      <c r="O98">
+        <f>SUM(G$2:G98)</f>
+        <v>71407.320000000051</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <f>AVERAGE(MaxDeg!A98:AX98)</f>
+        <v>1.08</v>
+      </c>
+      <c r="C99">
+        <f>AVERAGE(MaxCol!A98:AX98)</f>
+        <v>1.88</v>
+      </c>
+      <c r="D99">
+        <f>AVERAGE(MaxPre!A98:AX98)</f>
+        <v>1.02</v>
+      </c>
+      <c r="E99">
+        <f>AVERAGE(Rand!A98:AX98)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F99">
+        <f>AVERAGE(Walk!A98:AX98)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G99">
+        <f>AVERAGE(Walk2!A98:AX98)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I99">
+        <f>SUM(A$2:A99)</f>
+        <v>71553</v>
+      </c>
+      <c r="J99">
+        <f>SUM(B$2:B99)</f>
+        <v>71517.979999999981</v>
+      </c>
+      <c r="K99">
+        <f>SUM(C$2:C99)</f>
+        <v>71526.340000000026</v>
+      </c>
+      <c r="L99">
+        <f>SUM(D$2:D99)</f>
+        <v>71521.42</v>
+      </c>
+      <c r="M99">
+        <f>SUM(E$2:E99)</f>
+        <v>71408.38</v>
+      </c>
+      <c r="N99">
+        <f>SUM(F$2:F99)</f>
+        <v>71410.260000000009</v>
+      </c>
+      <c r="O99">
+        <f>SUM(G$2:G99)</f>
+        <v>71408.340000000055</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <f>AVERAGE(MaxDeg!A99:AX99)</f>
+        <v>1.74</v>
+      </c>
+      <c r="C100">
+        <f>AVERAGE(MaxCol!A99:AX99)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D100">
+        <f>AVERAGE(MaxPre!A99:AX99)</f>
+        <v>1.92</v>
+      </c>
+      <c r="E100">
+        <f>AVERAGE(Rand!A99:AX99)</f>
+        <v>1.02</v>
+      </c>
+      <c r="F100">
+        <f>AVERAGE(Walk!A99:AX99)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G100">
+        <f>AVERAGE(Walk2!A99:AX99)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I100">
+        <f>SUM(A$2:A100)</f>
+        <v>71555</v>
+      </c>
+      <c r="J100">
+        <f>SUM(B$2:B100)</f>
+        <v>71519.719999999987</v>
+      </c>
+      <c r="K100">
+        <f>SUM(C$2:C100)</f>
+        <v>71527.460000000021</v>
+      </c>
+      <c r="L100">
+        <f>SUM(D$2:D100)</f>
+        <v>71523.34</v>
+      </c>
+      <c r="M100">
+        <f>SUM(E$2:E100)</f>
+        <v>71409.400000000009</v>
+      </c>
+      <c r="N100">
+        <f>SUM(F$2:F100)</f>
+        <v>71411.3</v>
+      </c>
+      <c r="O100">
+        <f>SUM(G$2:G100)</f>
+        <v>71409.360000000059</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <f>AVERAGE(MaxDeg!A100:AX100)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C101">
+        <f>AVERAGE(MaxCol!A100:AX100)</f>
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <f>AVERAGE(MaxPre!A100:AX100)</f>
+        <v>1.18</v>
+      </c>
+      <c r="E101">
+        <f>AVERAGE(Rand!A100:AX100)</f>
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f>AVERAGE(Walk!A100:AX100)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G101">
+        <f>AVERAGE(Walk2!A100:AX100)</f>
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <f>SUM(A$2:A101)</f>
+        <v>71557</v>
+      </c>
+      <c r="J101">
+        <f>SUM(B$2:B101)</f>
+        <v>71520.859999999986</v>
+      </c>
+      <c r="K101">
+        <f>SUM(C$2:C101)</f>
+        <v>71529.460000000021</v>
+      </c>
+      <c r="L101">
+        <f>SUM(D$2:D101)</f>
+        <v>71524.51999999999</v>
+      </c>
+      <c r="M101">
+        <f>SUM(E$2:E101)</f>
+        <v>71410.400000000009</v>
+      </c>
+      <c r="N101">
+        <f>SUM(F$2:F101)</f>
+        <v>71412.320000000007</v>
+      </c>
+      <c r="O101">
+        <f>SUM(G$2:G101)</f>
+        <v>71410.360000000059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>